--- a/management/Project Schedule.xlsx
+++ b/management/Project Schedule.xlsx
@@ -1415,6 +1415,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1422,36 +1449,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1852,7 +1852,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2231,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2259,27 +2259,27 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="I1" s="72"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
@@ -2322,11 +2322,11 @@
       <c r="B4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="85">
         <v>43189</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="53"/>
       <c r="G4" s="56" t="s">
         <v>10</v>
@@ -2336,97 +2336,97 @@
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="76" t="str">
+      <c r="K4" s="77" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="76" t="str">
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="77" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="76" t="str">
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="77" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="76" t="str">
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="77" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="76" t="str">
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="77" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="78"/>
-      <c r="AT4" s="76" t="str">
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="77" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="76" t="str">
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="79"/>
+      <c r="BA4" s="77" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="76" t="str">
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="77" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="77"/>
-      <c r="BM4" s="77"/>
-      <c r="BN4" s="78"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="78"/>
+      <c r="BM4" s="78"/>
+      <c r="BN4" s="79"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52"/>
       <c r="B5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
@@ -3105,7 +3105,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="30">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I9" s="31">
         <f t="shared" si="4"/>
@@ -3178,20 +3178,22 @@
         <v>17</v>
       </c>
       <c r="D10" s="69"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47" t="str">
+      <c r="E10" s="46">
+        <v>43193</v>
+      </c>
+      <c r="F10" s="47">
         <f t="shared" ref="F10" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43195</v>
       </c>
       <c r="G10" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="30">
-        <v>0</v>
-      </c>
-      <c r="I10" s="31" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="31">
         <f t="shared" ref="I10" si="7">IF(OR(F10=0,E10=0)," - ",NETWORKDAYS(E10,F10))</f>
-        <v xml:space="preserve"> - </v>
+        <v>3</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="50"/>
@@ -3260,20 +3262,22 @@
         <v>19</v>
       </c>
       <c r="D11" s="69"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47" t="str">
+      <c r="E11" s="46">
+        <v>43193</v>
+      </c>
+      <c r="F11" s="47">
         <f t="shared" ref="F11" si="8">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43195</v>
       </c>
       <c r="G11" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="30">
-        <v>0</v>
-      </c>
-      <c r="I11" s="31" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="31">
         <f t="shared" ref="I11" si="9">IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
-        <v xml:space="preserve"> - </v>
+        <v>3</v>
       </c>
       <c r="J11" s="44"/>
       <c r="K11" s="50"/>
@@ -3353,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="31">
         <f t="shared" ref="I12" si="10">IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
@@ -3430,14 +3434,14 @@
         <v>43189</v>
       </c>
       <c r="F13" s="47">
-        <f t="shared" ref="F13:F23" si="11">IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
+        <f t="shared" ref="E13:F24" si="11">IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
         <v>43193</v>
       </c>
       <c r="G13" s="29">
         <v>5</v>
       </c>
       <c r="H13" s="30">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I13" s="31">
         <f t="shared" si="4"/>
@@ -3506,7 +3510,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="74" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="69"/>
@@ -3590,24 +3594,26 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.2</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="75" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="69"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47" t="str">
+      <c r="E15" s="46">
+        <v>43189</v>
+      </c>
+      <c r="F15" s="47">
         <f t="shared" ref="F15" si="14">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43195</v>
       </c>
       <c r="G15" s="29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H15" s="30">
-        <v>0</v>
-      </c>
-      <c r="I15" s="31" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="31">
         <f t="shared" ref="I15" si="15">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
-        <v xml:space="preserve"> - </v>
+        <v>5</v>
       </c>
       <c r="J15" s="44"/>
       <c r="K15" s="50"/>
@@ -3672,24 +3678,26 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.3</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="75" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="69"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47" t="str">
+      <c r="E16" s="46">
+        <v>43189</v>
+      </c>
+      <c r="F16" s="47">
         <f t="shared" ref="F16" si="16">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43195</v>
       </c>
       <c r="G16" s="29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H16" s="30">
-        <v>0</v>
-      </c>
-      <c r="I16" s="31" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="31">
         <f t="shared" ref="I16" si="17">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
-        <v xml:space="preserve"> - </v>
+        <v>5</v>
       </c>
       <c r="J16" s="44"/>
       <c r="K16" s="50"/>
@@ -3754,24 +3762,26 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.4</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="74" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="69"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47" t="str">
+      <c r="E17" s="46">
+        <v>43189</v>
+      </c>
+      <c r="F17" s="47">
         <f t="shared" ref="F17" si="18">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43195</v>
       </c>
       <c r="G17" s="29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H17" s="30">
-        <v>0</v>
-      </c>
-      <c r="I17" s="31" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="I17" s="31">
         <f t="shared" ref="I17" si="19">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
-        <v xml:space="preserve"> - </v>
+        <v>5</v>
       </c>
       <c r="J17" s="44"/>
       <c r="K17" s="50"/>
@@ -3836,24 +3846,26 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.5</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="76" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="69"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47" t="str">
+      <c r="E18" s="46">
+        <v>43189</v>
+      </c>
+      <c r="F18" s="47">
         <f t="shared" ref="F18" si="20">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43195</v>
       </c>
       <c r="G18" s="29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H18" s="30">
-        <v>0</v>
-      </c>
-      <c r="I18" s="31" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="31">
         <f t="shared" ref="I18" si="21">IF(OR(F18=0,E18=0)," - ",NETWORKDAYS(E18,F18))</f>
-        <v xml:space="preserve"> - </v>
+        <v>5</v>
       </c>
       <c r="J18" s="44"/>
       <c r="K18" s="50"/>
@@ -4172,20 +4184,21 @@
         <v>27</v>
       </c>
       <c r="D22" s="69"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47" t="str">
+      <c r="E22" s="46">
+        <v>43189</v>
+      </c>
+      <c r="F22" s="47">
         <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
+        <v>43193</v>
       </c>
       <c r="G22" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="30">
-        <v>0</v>
-      </c>
-      <c r="I22" s="31" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
+        <v>1</v>
+      </c>
+      <c r="I22" s="31">
+        <v>3</v>
       </c>
       <c r="J22" s="44"/>
       <c r="K22" s="50"/>
@@ -4254,20 +4267,21 @@
         <v>30</v>
       </c>
       <c r="D23" s="69"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47" t="str">
+      <c r="E23" s="46">
+        <v>43189</v>
+      </c>
+      <c r="F23" s="47">
         <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
+        <v>43195</v>
       </c>
       <c r="G23" s="29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H23" s="30">
         <v>0</v>
       </c>
-      <c r="I23" s="31" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
+      <c r="I23" s="31">
+        <v>5</v>
       </c>
       <c r="J23" s="44"/>
       <c r="K23" s="50"/>
@@ -4336,20 +4350,22 @@
         <v>31</v>
       </c>
       <c r="D24" s="69"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47" t="str">
+      <c r="E24" s="46">
+        <v>43193</v>
+      </c>
+      <c r="F24" s="47">
         <f t="shared" ref="F24" si="22">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43196</v>
       </c>
       <c r="G24" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="30">
         <v>0</v>
       </c>
-      <c r="I24" s="31" t="str">
+      <c r="I24" s="31">
         <f t="shared" ref="I24" si="23">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
-        <v xml:space="preserve"> - </v>
+        <v>4</v>
       </c>
       <c r="J24" s="44"/>
       <c r="K24" s="50"/>
@@ -4480,6 +4496,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -4490,15 +4515,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H9 H13 H19:H20 H22:H23">
@@ -4778,7 +4794,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G13 H19 H23" unlockedFormula="1"/>
+    <ignoredError sqref="G13 H19" unlockedFormula="1"/>
     <ignoredError sqref="A19" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/management/Project Schedule.xlsx
+++ b/management/Project Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="13275" windowHeight="11250"/>
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BO$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1">
+    <comment ref="G7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="I7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -410,18 +410,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>WBS</t>
   </si>
   <si>
-    <t>[Name]</t>
-  </si>
-  <si>
     <t>TASK</t>
-  </si>
-  <si>
-    <t>LEAD</t>
   </si>
   <si>
     <t>START</t>
@@ -507,18 +501,193 @@
   <si>
     <t>System Validation Testcases</t>
   </si>
+  <si>
+    <t>OWNER</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Marwan</t>
+  </si>
+  <si>
+    <t>Soha</t>
+  </si>
+  <si>
+    <t>Khaled</t>
+  </si>
+  <si>
+    <t>Toqa , Esraa</t>
+  </si>
+  <si>
+    <t>Marwan, El Zeiny</t>
+  </si>
+  <si>
+    <t>Soha , Marwan</t>
+  </si>
+  <si>
+    <t>Salma , Basma</t>
+  </si>
+  <si>
+    <t>Esraa</t>
+  </si>
+  <si>
+    <t>Christine , El Zeiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marwan </t>
+  </si>
+  <si>
+    <t>El Zeiny</t>
+  </si>
+  <si>
+    <t>Basma , Esraa</t>
+  </si>
+  <si>
+    <t>Timer , DIO  Design</t>
+  </si>
+  <si>
+    <t>Application Design</t>
+  </si>
+  <si>
+    <t>PWM , Motor driver Design</t>
+  </si>
+  <si>
+    <t>Button Driver</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Abdel Rahman , El Zeiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raafat , Basma </t>
+  </si>
+  <si>
+    <t>Raafat,Basma , Esraa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raafat , Christine </t>
+  </si>
+  <si>
+    <t>Raafat , El Zeiny</t>
+  </si>
+  <si>
+    <t>Khaled , Christine</t>
+  </si>
+  <si>
+    <t>Abdel Rahman , Khaled</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Abdel Rahman , Soha ,Marwan , Salma</t>
+  </si>
+  <si>
+    <t>Soha,Salma,Marwan</t>
+  </si>
+  <si>
+    <t>System design / Detailed design</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Application coding</t>
+  </si>
+  <si>
+    <t>Timer , DIO  coding</t>
+  </si>
+  <si>
+    <t>PWM , Motor driver coding</t>
+  </si>
+  <si>
+    <t>Operating System coding</t>
+  </si>
+  <si>
+    <t>Button Driver coding</t>
+  </si>
+  <si>
+    <t>Soha,Marwan</t>
+  </si>
+  <si>
+    <t>Marwan,Soha</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Unit test Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIO ,  Timer Testcases</t>
+  </si>
+  <si>
+    <t>Operating System Testcases</t>
+  </si>
+  <si>
+    <t>Button 
+Testcases</t>
+  </si>
+  <si>
+    <t>Operating System Testing</t>
+  </si>
+  <si>
+    <t>Button 
+Testing</t>
+  </si>
+  <si>
+    <t>PWM , Motor 
+Testcases</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIO ,  Timer 
+Testing</t>
+  </si>
+  <si>
+    <t>PWM , Motor 
+Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Validation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System level 
+Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bug fixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIO ,  Timer 
+Bug Fixing</t>
+  </si>
+  <si>
+    <t>PWM , Motor 
+Bug Fixing</t>
+  </si>
+  <si>
+    <t>Operating System 
+Bug Fixing</t>
+  </si>
+  <si>
+    <t>Button 
+BugFixing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
     <numFmt numFmtId="165" formatCode="ddd\ m/dd/yy"/>
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1219,7 +1388,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1232,18 +1401,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -1402,9 +1559,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1419,10 +1573,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1452,6 +1603,12 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1500,7 +1657,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="152">
     <dxf>
       <border>
         <left style="thin">
@@ -1592,6 +1749,20 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1604,6 +1775,20 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1616,6 +1801,20 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1628,6 +1827,20 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1732,12 +1945,1048 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1828,24 +3077,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>4233</xdr:rowOff>
+      <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1886,54 +3131,13 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+            <a14:shadowObscured xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8238" name="Scroll Bar 46" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8238"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2223,83 +3427,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN25"/>
+  <dimension ref="A1:BO60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.85546875" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.85546875" style="1" customWidth="1"/>
+    <col min="12" max="67" width="2.42578125" style="1" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="I1" s="72"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
+    <row r="1" spans="1:67" ht="30" customHeight="1">
+      <c r="A1" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="J1" s="67"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
     </row>
-    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:67" ht="18" customHeight="1">
+      <c r="A2" s="15"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="H2" s="2"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="4"/>
+    <row r="3" spans="1:67" ht="14.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -2316,2519 +3523,5755 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
     </row>
-    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="85">
+    <row r="4" spans="1:67" ht="17.25" customHeight="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="79">
         <v>43189</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="56" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="66">
+        <v>1</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="71" t="str">
+        <f>"Week "&amp;(L6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+        <v>Week 1</v>
+      </c>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="71" t="str">
+        <f>"Week "&amp;(S6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+        <v>Week 2</v>
+      </c>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="71" t="str">
+        <f>"Week "&amp;(Z6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+        <v>Week 3</v>
+      </c>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="71" t="str">
+        <f>"Week "&amp;(AG6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+        <v>Week 4</v>
+      </c>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="71" t="str">
+        <f>"Week "&amp;(AN6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+        <v>Week 5</v>
+      </c>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="71" t="str">
+        <f>"Week "&amp;(AU6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+        <v>Week 6</v>
+      </c>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="71" t="str">
+        <f>"Week "&amp;(BB6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+        <v>Week 7</v>
+      </c>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="71" t="str">
+        <f>"Week "&amp;(BI6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
+        <v>Week 8</v>
+      </c>
+      <c r="BJ4" s="72"/>
+      <c r="BK4" s="72"/>
+      <c r="BL4" s="72"/>
+      <c r="BM4" s="72"/>
+      <c r="BN4" s="72"/>
+      <c r="BO4" s="73"/>
+    </row>
+    <row r="5" spans="1:67" ht="17.25" customHeight="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="71">
-        <v>1</v>
-      </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="77" t="str">
-        <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="77" t="str">
-        <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="77" t="str">
-        <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="77" t="str">
-        <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="77" t="str">
-        <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="77" t="str">
-        <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="77" t="str">
-        <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="77" t="str">
-        <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BI4" s="78"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="78"/>
-      <c r="BM4" s="78"/>
-      <c r="BN4" s="79"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="74">
+        <f>L6</f>
+        <v>43185</v>
+      </c>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="74">
+        <f>S6</f>
+        <v>43192</v>
+      </c>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="74">
+        <f>Z6</f>
+        <v>43199</v>
+      </c>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="74">
+        <f>AG6</f>
+        <v>43206</v>
+      </c>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="74">
+        <f>AN6</f>
+        <v>43213</v>
+      </c>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="76"/>
+      <c r="AU5" s="74">
+        <f>AU6</f>
+        <v>43220</v>
+      </c>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="74">
+        <f>BB6</f>
+        <v>43227</v>
+      </c>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="75"/>
+      <c r="BH5" s="76"/>
+      <c r="BI5" s="74">
+        <f>BI6</f>
+        <v>43234</v>
+      </c>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="75"/>
+      <c r="BO5" s="76"/>
     </row>
-    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="80">
-        <f>K6</f>
+    <row r="6" spans="1:67">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="37">
+        <f>D4-WEEKDAY(D4,1)+2+7*(I4-1)</f>
         <v>43185</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="80">
-        <f>R6</f>
-        <v>43192</v>
-      </c>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="80">
-        <f>Y6</f>
-        <v>43199</v>
-      </c>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="80">
-        <f>AF6</f>
-        <v>43206</v>
-      </c>
-      <c r="AG5" s="81"/>
-      <c r="AH5" s="81"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="80">
-        <f>AM6</f>
-        <v>43213</v>
-      </c>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="80">
-        <f>AT6</f>
-        <v>43220</v>
-      </c>
-      <c r="AU5" s="81"/>
-      <c r="AV5" s="81"/>
-      <c r="AW5" s="81"/>
-      <c r="AX5" s="81"/>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="82"/>
-      <c r="BA5" s="80">
-        <f>BA6</f>
-        <v>43227</v>
-      </c>
-      <c r="BB5" s="81"/>
-      <c r="BC5" s="81"/>
-      <c r="BD5" s="81"/>
-      <c r="BE5" s="81"/>
-      <c r="BF5" s="81"/>
-      <c r="BG5" s="82"/>
-      <c r="BH5" s="80">
-        <f>BH6</f>
-        <v>43234</v>
-      </c>
-      <c r="BI5" s="81"/>
-      <c r="BJ5" s="81"/>
-      <c r="BK5" s="81"/>
-      <c r="BL5" s="81"/>
-      <c r="BM5" s="81"/>
-      <c r="BN5" s="82"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="41">
-        <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>43185</v>
-      </c>
-      <c r="L6" s="32">
-        <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
+      <c r="M6" s="28">
+        <f t="shared" ref="M6:AR6" si="0">L6+1</f>
         <v>43186</v>
       </c>
-      <c r="M6" s="32">
+      <c r="N6" s="28">
         <f t="shared" si="0"/>
         <v>43187</v>
       </c>
-      <c r="N6" s="32">
+      <c r="O6" s="28">
         <f t="shared" si="0"/>
         <v>43188</v>
       </c>
-      <c r="O6" s="32">
+      <c r="P6" s="28">
         <f t="shared" si="0"/>
         <v>43189</v>
       </c>
-      <c r="P6" s="32">
+      <c r="Q6" s="28">
         <f t="shared" si="0"/>
         <v>43190</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="R6" s="38">
         <f t="shared" si="0"/>
         <v>43191</v>
       </c>
-      <c r="R6" s="41">
+      <c r="S6" s="37">
         <f t="shared" si="0"/>
         <v>43192</v>
       </c>
-      <c r="S6" s="32">
+      <c r="T6" s="28">
         <f t="shared" si="0"/>
         <v>43193</v>
       </c>
-      <c r="T6" s="32">
+      <c r="U6" s="28">
         <f t="shared" si="0"/>
         <v>43194</v>
       </c>
-      <c r="U6" s="32">
+      <c r="V6" s="28">
         <f t="shared" si="0"/>
         <v>43195</v>
       </c>
-      <c r="V6" s="32">
+      <c r="W6" s="28">
         <f t="shared" si="0"/>
         <v>43196</v>
       </c>
-      <c r="W6" s="32">
+      <c r="X6" s="28">
         <f t="shared" si="0"/>
         <v>43197</v>
       </c>
-      <c r="X6" s="42">
+      <c r="Y6" s="38">
         <f t="shared" si="0"/>
         <v>43198</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Z6" s="37">
         <f t="shared" si="0"/>
         <v>43199</v>
       </c>
-      <c r="Z6" s="32">
+      <c r="AA6" s="28">
         <f t="shared" si="0"/>
         <v>43200</v>
       </c>
-      <c r="AA6" s="32">
+      <c r="AB6" s="28">
         <f t="shared" si="0"/>
         <v>43201</v>
       </c>
-      <c r="AB6" s="32">
+      <c r="AC6" s="28">
         <f t="shared" si="0"/>
         <v>43202</v>
       </c>
-      <c r="AC6" s="32">
+      <c r="AD6" s="28">
         <f t="shared" si="0"/>
         <v>43203</v>
       </c>
-      <c r="AD6" s="32">
+      <c r="AE6" s="28">
         <f t="shared" si="0"/>
         <v>43204</v>
       </c>
-      <c r="AE6" s="42">
+      <c r="AF6" s="38">
         <f t="shared" si="0"/>
         <v>43205</v>
       </c>
-      <c r="AF6" s="41">
+      <c r="AG6" s="37">
         <f t="shared" si="0"/>
         <v>43206</v>
       </c>
-      <c r="AG6" s="32">
+      <c r="AH6" s="28">
         <f t="shared" si="0"/>
         <v>43207</v>
       </c>
-      <c r="AH6" s="32">
+      <c r="AI6" s="28">
         <f t="shared" si="0"/>
         <v>43208</v>
       </c>
-      <c r="AI6" s="32">
+      <c r="AJ6" s="28">
         <f t="shared" si="0"/>
         <v>43209</v>
       </c>
-      <c r="AJ6" s="32">
+      <c r="AK6" s="28">
         <f t="shared" si="0"/>
         <v>43210</v>
       </c>
-      <c r="AK6" s="32">
+      <c r="AL6" s="28">
         <f t="shared" si="0"/>
         <v>43211</v>
       </c>
-      <c r="AL6" s="42">
+      <c r="AM6" s="38">
         <f t="shared" si="0"/>
         <v>43212</v>
       </c>
-      <c r="AM6" s="41">
+      <c r="AN6" s="37">
         <f t="shared" si="0"/>
         <v>43213</v>
       </c>
-      <c r="AN6" s="32">
+      <c r="AO6" s="28">
         <f t="shared" si="0"/>
         <v>43214</v>
       </c>
-      <c r="AO6" s="32">
+      <c r="AP6" s="28">
         <f t="shared" si="0"/>
         <v>43215</v>
       </c>
-      <c r="AP6" s="32">
+      <c r="AQ6" s="28">
         <f t="shared" si="0"/>
         <v>43216</v>
       </c>
-      <c r="AQ6" s="32">
+      <c r="AR6" s="28">
         <f t="shared" si="0"/>
         <v>43217</v>
       </c>
-      <c r="AR6" s="32">
-        <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
+      <c r="AS6" s="28">
+        <f t="shared" ref="AS6:BO6" si="1">AR6+1</f>
         <v>43218</v>
       </c>
-      <c r="AS6" s="42">
+      <c r="AT6" s="38">
         <f t="shared" si="1"/>
         <v>43219</v>
       </c>
-      <c r="AT6" s="41">
+      <c r="AU6" s="37">
         <f t="shared" si="1"/>
         <v>43220</v>
       </c>
-      <c r="AU6" s="32">
+      <c r="AV6" s="28">
         <f t="shared" si="1"/>
         <v>43221</v>
       </c>
-      <c r="AV6" s="32">
+      <c r="AW6" s="28">
         <f t="shared" si="1"/>
         <v>43222</v>
       </c>
-      <c r="AW6" s="32">
+      <c r="AX6" s="28">
         <f t="shared" si="1"/>
         <v>43223</v>
       </c>
-      <c r="AX6" s="32">
+      <c r="AY6" s="28">
         <f t="shared" si="1"/>
         <v>43224</v>
       </c>
-      <c r="AY6" s="32">
+      <c r="AZ6" s="28">
         <f t="shared" si="1"/>
         <v>43225</v>
       </c>
-      <c r="AZ6" s="42">
+      <c r="BA6" s="38">
         <f t="shared" si="1"/>
         <v>43226</v>
       </c>
-      <c r="BA6" s="41">
+      <c r="BB6" s="37">
         <f t="shared" si="1"/>
         <v>43227</v>
       </c>
-      <c r="BB6" s="32">
+      <c r="BC6" s="28">
         <f t="shared" si="1"/>
         <v>43228</v>
       </c>
-      <c r="BC6" s="32">
+      <c r="BD6" s="28">
         <f t="shared" si="1"/>
         <v>43229</v>
       </c>
-      <c r="BD6" s="32">
+      <c r="BE6" s="28">
         <f t="shared" si="1"/>
         <v>43230</v>
       </c>
-      <c r="BE6" s="32">
+      <c r="BF6" s="28">
         <f t="shared" si="1"/>
         <v>43231</v>
       </c>
-      <c r="BF6" s="32">
+      <c r="BG6" s="28">
         <f t="shared" si="1"/>
         <v>43232</v>
       </c>
-      <c r="BG6" s="42">
+      <c r="BH6" s="38">
         <f t="shared" si="1"/>
         <v>43233</v>
       </c>
-      <c r="BH6" s="41">
+      <c r="BI6" s="37">
         <f t="shared" si="1"/>
         <v>43234</v>
       </c>
-      <c r="BI6" s="32">
+      <c r="BJ6" s="28">
         <f t="shared" si="1"/>
         <v>43235</v>
       </c>
-      <c r="BJ6" s="32">
+      <c r="BK6" s="28">
         <f t="shared" si="1"/>
         <v>43236</v>
       </c>
-      <c r="BK6" s="32">
+      <c r="BL6" s="28">
         <f t="shared" si="1"/>
         <v>43237</v>
       </c>
-      <c r="BL6" s="32">
+      <c r="BM6" s="28">
         <f t="shared" si="1"/>
         <v>43238</v>
       </c>
-      <c r="BM6" s="32">
+      <c r="BN6" s="28">
         <f t="shared" si="1"/>
         <v>43239</v>
       </c>
-      <c r="BN6" s="42">
+      <c r="BO6" s="38">
         <f t="shared" si="1"/>
         <v>43240</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="66" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:67" s="62" customFormat="1" ht="24.75" thickBot="1">
+      <c r="A7" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="G7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="62" t="s">
+      <c r="H7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="I7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="J7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="63" t="str">
-        <f t="shared" ref="K7:AP7" si="2">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
+      <c r="K7" s="56"/>
+      <c r="L7" s="59" t="str">
+        <f t="shared" ref="L7:AQ7" si="2">CHOOSE(WEEKDAY(L6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="L7" s="64" t="str">
+      <c r="M7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="M7" s="64" t="str">
+      <c r="N7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="N7" s="64" t="str">
+      <c r="O7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="O7" s="64" t="str">
+      <c r="P7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="P7" s="64" t="str">
+      <c r="Q7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="Q7" s="65" t="str">
+      <c r="R7" s="61" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="R7" s="63" t="str">
+      <c r="S7" s="59" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="S7" s="64" t="str">
+      <c r="T7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="T7" s="64" t="str">
+      <c r="U7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="U7" s="64" t="str">
+      <c r="V7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="V7" s="64" t="str">
+      <c r="W7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="W7" s="64" t="str">
+      <c r="X7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="X7" s="65" t="str">
+      <c r="Y7" s="61" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="Y7" s="63" t="str">
+      <c r="Z7" s="59" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="Z7" s="64" t="str">
+      <c r="AA7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AA7" s="64" t="str">
+      <c r="AB7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AB7" s="64" t="str">
+      <c r="AC7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AC7" s="64" t="str">
+      <c r="AD7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AD7" s="64" t="str">
+      <c r="AE7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AE7" s="65" t="str">
+      <c r="AF7" s="61" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AF7" s="63" t="str">
+      <c r="AG7" s="59" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AG7" s="64" t="str">
+      <c r="AH7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AH7" s="64" t="str">
+      <c r="AI7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AI7" s="64" t="str">
+      <c r="AJ7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AJ7" s="64" t="str">
+      <c r="AK7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AK7" s="64" t="str">
+      <c r="AL7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AL7" s="65" t="str">
+      <c r="AM7" s="61" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AM7" s="63" t="str">
+      <c r="AN7" s="59" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AN7" s="64" t="str">
+      <c r="AO7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AO7" s="64" t="str">
+      <c r="AP7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AP7" s="64" t="str">
+      <c r="AQ7" s="60" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AQ7" s="64" t="str">
-        <f t="shared" ref="AQ7:BN7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
+      <c r="AR7" s="60" t="str">
+        <f t="shared" ref="AR7:BO7" si="3">CHOOSE(WEEKDAY(AR6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AR7" s="64" t="str">
+      <c r="AS7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AS7" s="65" t="str">
+      <c r="AT7" s="61" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AT7" s="63" t="str">
+      <c r="AU7" s="59" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AU7" s="64" t="str">
+      <c r="AV7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AV7" s="64" t="str">
+      <c r="AW7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AW7" s="64" t="str">
+      <c r="AX7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AX7" s="64" t="str">
+      <c r="AY7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AY7" s="64" t="str">
+      <c r="AZ7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AZ7" s="65" t="str">
+      <c r="BA7" s="61" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BA7" s="63" t="str">
+      <c r="BB7" s="59" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="BB7" s="64" t="str">
+      <c r="BC7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BC7" s="64" t="str">
+      <c r="BD7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="BD7" s="64" t="str">
+      <c r="BE7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BE7" s="64" t="str">
+      <c r="BF7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="BF7" s="64" t="str">
+      <c r="BG7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BG7" s="65" t="str">
+      <c r="BH7" s="61" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BH7" s="63" t="str">
+      <c r="BI7" s="59" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="BI7" s="64" t="str">
+      <c r="BJ7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BJ7" s="64" t="str">
+      <c r="BK7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="BK7" s="64" t="str">
+      <c r="BL7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BL7" s="64" t="str">
+      <c r="BM7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="BM7" s="64" t="str">
+      <c r="BN7" s="60" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BN7" s="65" t="str">
+      <c r="BO7" s="61" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="str">
+    <row r="8" spans="1:67" s="18" customFormat="1" ht="18">
+      <c r="A8" s="29" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="57" t="str">
-        <f>IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="53" t="str">
+        <f>IF(ISBLANK(F8)," - ",IF(H8=0,F8,F8+H8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40" t="str">
-        <f t="shared" ref="I8:I23" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36" t="str">
+        <f t="shared" ref="J8:J13" si="4">IF(OR(G8=0,F8=0)," - ",NETWORKDAYS(F8,G8))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="49"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="49"/>
-      <c r="BB8" s="49"/>
-      <c r="BC8" s="49"/>
-      <c r="BD8" s="49"/>
-      <c r="BE8" s="49"/>
-      <c r="BF8" s="49"/>
-      <c r="BG8" s="49"/>
-      <c r="BH8" s="49"/>
-      <c r="BI8" s="49"/>
-      <c r="BJ8" s="49"/>
-      <c r="BK8" s="49"/>
-      <c r="BL8" s="49"/>
-      <c r="BM8" s="49"/>
-      <c r="BN8" s="49"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
+      <c r="AZ8" s="45"/>
+      <c r="BA8" s="45"/>
+      <c r="BB8" s="45"/>
+      <c r="BC8" s="45"/>
+      <c r="BD8" s="45"/>
+      <c r="BE8" s="45"/>
+      <c r="BF8" s="45"/>
+      <c r="BG8" s="45"/>
+      <c r="BH8" s="45"/>
+      <c r="BI8" s="45"/>
+      <c r="BJ8" s="45"/>
+      <c r="BK8" s="45"/>
+      <c r="BL8" s="45"/>
+      <c r="BM8" s="45"/>
+      <c r="BN8" s="45"/>
+      <c r="BO8" s="45"/>
     </row>
-    <row r="9" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="str">
+    <row r="9" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A9" s="23" t="str">
         <f t="shared" ref="A9:A13" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="42">
+        <v>43189</v>
+      </c>
+      <c r="G9" s="43">
+        <f>IF(ISBLANK(F9)," - ",IF(H9=0,F9,F9+H9-1))</f>
+        <v>43193</v>
+      </c>
+      <c r="H9" s="25">
+        <v>5</v>
+      </c>
+      <c r="I9" s="26">
         <v>1</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="46">
-        <v>43189</v>
-      </c>
-      <c r="F9" s="47">
-        <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v>43193</v>
-      </c>
-      <c r="G9" s="29">
-        <v>5</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="31">
+      <c r="J9" s="27">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="50"/>
-      <c r="BE9" s="50"/>
-      <c r="BF9" s="50"/>
-      <c r="BG9" s="50"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="50"/>
-      <c r="BJ9" s="50"/>
-      <c r="BK9" s="50"/>
-      <c r="BL9" s="50"/>
-      <c r="BM9" s="50"/>
-      <c r="BN9" s="50"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="46"/>
+      <c r="BG9" s="46"/>
+      <c r="BH9" s="46"/>
+      <c r="BI9" s="46"/>
+      <c r="BJ9" s="46"/>
+      <c r="BK9" s="46"/>
+      <c r="BL9" s="46"/>
+      <c r="BM9" s="46"/>
+      <c r="BN9" s="46"/>
+      <c r="BO9" s="46"/>
     </row>
-    <row r="10" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="str">
+    <row r="10" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A10" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="46">
+        <v>15</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="42">
         <v>43193</v>
       </c>
-      <c r="F10" s="47">
-        <f t="shared" ref="F10" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+      <c r="G10" s="43">
+        <f t="shared" ref="G10" si="6">IF(ISBLANK(F10)," - ",IF(H10=0,F10,F10+H10-1))</f>
         <v>43195</v>
       </c>
-      <c r="G10" s="29">
+      <c r="H10" s="25">
         <v>3</v>
       </c>
-      <c r="H10" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="I10" s="31">
-        <f t="shared" ref="I10" si="7">IF(OR(F10=0,E10=0)," - ",NETWORKDAYS(E10,F10))</f>
+      <c r="I10" s="26">
+        <v>1</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" ref="J10" si="7">IF(OR(G10=0,F10=0)," - ",NETWORKDAYS(F10,G10))</f>
         <v>3</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="50"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="50"/>
-      <c r="AZ10" s="50"/>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
-      <c r="BD10" s="50"/>
-      <c r="BE10" s="50"/>
-      <c r="BF10" s="50"/>
-      <c r="BG10" s="50"/>
-      <c r="BH10" s="50"/>
-      <c r="BI10" s="50"/>
-      <c r="BJ10" s="50"/>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="46"/>
+      <c r="BA10" s="46"/>
+      <c r="BB10" s="46"/>
+      <c r="BC10" s="46"/>
+      <c r="BD10" s="46"/>
+      <c r="BE10" s="46"/>
+      <c r="BF10" s="46"/>
+      <c r="BG10" s="46"/>
+      <c r="BH10" s="46"/>
+      <c r="BI10" s="46"/>
+      <c r="BJ10" s="46"/>
+      <c r="BK10" s="46"/>
+      <c r="BL10" s="46"/>
+      <c r="BM10" s="46"/>
+      <c r="BN10" s="46"/>
+      <c r="BO10" s="46"/>
     </row>
-    <row r="11" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="str">
+    <row r="11" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A11" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="46">
+        <v>17</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="42">
         <v>43193</v>
       </c>
-      <c r="F11" s="47">
-        <f t="shared" ref="F11" si="8">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+      <c r="G11" s="43">
+        <f t="shared" ref="G11" si="8">IF(ISBLANK(F11)," - ",IF(H11=0,F11,F11+H11-1))</f>
         <v>43195</v>
       </c>
-      <c r="G11" s="29">
+      <c r="H11" s="25">
         <v>3</v>
       </c>
-      <c r="H11" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="I11" s="31">
-        <f t="shared" ref="I11" si="9">IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" ref="J11" si="9">IF(OR(G11=0,F11=0)," - ",NETWORKDAYS(F11,G11))</f>
         <v>3</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
-      <c r="BJ11" s="50"/>
-      <c r="BK11" s="50"/>
-      <c r="BL11" s="50"/>
-      <c r="BM11" s="50"/>
-      <c r="BN11" s="50"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="46"/>
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="46"/>
+      <c r="AU11" s="46"/>
+      <c r="AV11" s="46"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="46"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="46"/>
+      <c r="BE11" s="46"/>
+      <c r="BF11" s="46"/>
+      <c r="BG11" s="46"/>
+      <c r="BH11" s="46"/>
+      <c r="BI11" s="46"/>
+      <c r="BJ11" s="46"/>
+      <c r="BK11" s="46"/>
+      <c r="BL11" s="46"/>
+      <c r="BM11" s="46"/>
+      <c r="BN11" s="46"/>
+      <c r="BO11" s="46"/>
     </row>
-    <row r="12" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="str">
+    <row r="12" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A12" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="46">
+        <v>16</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="42">
         <v>43191</v>
       </c>
-      <c r="F12" s="47">
-        <f>IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
+      <c r="G12" s="43">
+        <f>IF(ISBLANK(F12)," - ",IF(H12=0,F12,F12+H12-1))</f>
         <v>43193</v>
       </c>
-      <c r="G12" s="29">
+      <c r="H12" s="25">
         <v>3</v>
       </c>
-      <c r="H12" s="30">
+      <c r="I12" s="26">
         <v>1</v>
       </c>
-      <c r="I12" s="31">
-        <f t="shared" ref="I12" si="10">IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
+      <c r="J12" s="27">
+        <f t="shared" ref="J12" si="10">IF(OR(G12=0,F12=0)," - ",NETWORKDAYS(F12,G12))</f>
         <v>2</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="50"/>
-      <c r="BE12" s="50"/>
-      <c r="BF12" s="50"/>
-      <c r="BG12" s="50"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="50"/>
-      <c r="BK12" s="50"/>
-      <c r="BL12" s="50"/>
-      <c r="BM12" s="50"/>
-      <c r="BN12" s="50"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="46"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="46"/>
+      <c r="BI12" s="46"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="46"/>
+      <c r="BL12" s="46"/>
+      <c r="BM12" s="46"/>
+      <c r="BN12" s="46"/>
+      <c r="BO12" s="46"/>
     </row>
-    <row r="13" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="str">
+    <row r="13" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A13" s="23" t="str">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="46">
+      <c r="B13" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="42">
         <v>43189</v>
       </c>
-      <c r="F13" s="47">
-        <f t="shared" ref="E13:F24" si="11">IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
-        <v>43193</v>
-      </c>
-      <c r="G13" s="29">
+      <c r="G13" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H13" s="25">
         <v>5</v>
       </c>
-      <c r="H13" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="I13" s="31">
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="J13" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="50"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="50"/>
-      <c r="BD13" s="50"/>
-      <c r="BE13" s="50"/>
-      <c r="BF13" s="50"/>
-      <c r="BG13" s="50"/>
-      <c r="BH13" s="50"/>
-      <c r="BI13" s="50"/>
-      <c r="BJ13" s="50"/>
-      <c r="BK13" s="50"/>
-      <c r="BL13" s="50"/>
-      <c r="BM13" s="50"/>
-      <c r="BN13" s="50"/>
+        <v>14</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="46"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="46"/>
+      <c r="BI13" s="46"/>
+      <c r="BJ13" s="46"/>
+      <c r="BK13" s="46"/>
+      <c r="BL13" s="46"/>
+      <c r="BM13" s="46"/>
+      <c r="BN13" s="46"/>
+      <c r="BO13" s="46"/>
     </row>
-    <row r="14" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="str">
+    <row r="14" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A14" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
       </c>
-      <c r="B14" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="46">
+      <c r="B14" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="42">
         <v>43189</v>
       </c>
-      <c r="F14" s="47">
-        <f t="shared" ref="F14" si="12">IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
-        <v>43190</v>
-      </c>
-      <c r="G14" s="29">
+      <c r="G14" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H14" s="25">
         <v>2</v>
       </c>
-      <c r="H14" s="30">
+      <c r="I14" s="26">
         <v>1</v>
       </c>
-      <c r="I14" s="31">
-        <f t="shared" ref="I14" si="13">IF(OR(F14=0,E14=0)," - ",NETWORKDAYS(E14,F14))</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="50"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="50"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
-      <c r="BB14" s="50"/>
-      <c r="BC14" s="50"/>
-      <c r="BD14" s="50"/>
-      <c r="BE14" s="50"/>
-      <c r="BF14" s="50"/>
-      <c r="BG14" s="50"/>
-      <c r="BH14" s="50"/>
-      <c r="BI14" s="50"/>
-      <c r="BJ14" s="50"/>
-      <c r="BK14" s="50"/>
-      <c r="BL14" s="50"/>
-      <c r="BM14" s="50"/>
-      <c r="BN14" s="50"/>
+      <c r="J14" s="27">
+        <f t="shared" ref="J14" si="11">IF(OR(G14=0,F14=0)," - ",NETWORKDAYS(F14,G14))</f>
+        <v>14</v>
+      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="46"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="46"/>
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="46"/>
+      <c r="BB14" s="46"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="46"/>
+      <c r="BG14" s="46"/>
+      <c r="BH14" s="46"/>
+      <c r="BI14" s="46"/>
+      <c r="BJ14" s="46"/>
+      <c r="BK14" s="46"/>
+      <c r="BL14" s="46"/>
+      <c r="BM14" s="46"/>
+      <c r="BN14" s="46"/>
+      <c r="BO14" s="46"/>
     </row>
-    <row r="15" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="str">
+    <row r="15" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A15" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.2</v>
       </c>
-      <c r="B15" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="46">
+      <c r="B15" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="65"/>
+      <c r="F15" s="42">
         <v>43189</v>
       </c>
-      <c r="F15" s="47">
-        <f t="shared" ref="F15" si="14">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
+      <c r="G15" s="43">
+        <f t="shared" ref="G15" si="12">IF(ISBLANK(F15)," - ",IF(H15=0,F15,F15+H15-1))</f>
         <v>43195</v>
       </c>
-      <c r="G15" s="29">
+      <c r="H15" s="25">
         <v>7</v>
       </c>
-      <c r="H15" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="I15" s="31">
-        <f t="shared" ref="I15" si="15">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" ref="J15" si="13">IF(OR(G15=0,F15=0)," - ",NETWORKDAYS(F15,G15))</f>
         <v>5</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="50"/>
-      <c r="AZ15" s="50"/>
-      <c r="BA15" s="50"/>
-      <c r="BB15" s="50"/>
-      <c r="BC15" s="50"/>
-      <c r="BD15" s="50"/>
-      <c r="BE15" s="50"/>
-      <c r="BF15" s="50"/>
-      <c r="BG15" s="50"/>
-      <c r="BH15" s="50"/>
-      <c r="BI15" s="50"/>
-      <c r="BJ15" s="50"/>
-      <c r="BK15" s="50"/>
-      <c r="BL15" s="50"/>
-      <c r="BM15" s="50"/>
-      <c r="BN15" s="50"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="46"/>
+      <c r="AV15" s="46"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="46"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="46"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="46"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="46"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="46"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="46"/>
+      <c r="BI15" s="46"/>
+      <c r="BJ15" s="46"/>
+      <c r="BK15" s="46"/>
+      <c r="BL15" s="46"/>
+      <c r="BM15" s="46"/>
+      <c r="BN15" s="46"/>
+      <c r="BO15" s="46"/>
     </row>
-    <row r="16" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="str">
+    <row r="16" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A16" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.3</v>
       </c>
-      <c r="B16" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="46">
+      <c r="B16" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="65"/>
+      <c r="F16" s="42">
         <v>43189</v>
       </c>
-      <c r="F16" s="47">
-        <f t="shared" ref="F16" si="16">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
+      <c r="G16" s="43">
+        <f t="shared" ref="G16" si="14">IF(ISBLANK(F16)," - ",IF(H16=0,F16,F16+H16-1))</f>
         <v>43195</v>
       </c>
-      <c r="G16" s="29">
+      <c r="H16" s="25">
         <v>7</v>
       </c>
-      <c r="H16" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="I16" s="31">
-        <f t="shared" ref="I16" si="17">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" ref="J16" si="15">IF(OR(G16=0,F16=0)," - ",NETWORKDAYS(F16,G16))</f>
         <v>5</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="50"/>
-      <c r="AZ16" s="50"/>
-      <c r="BA16" s="50"/>
-      <c r="BB16" s="50"/>
-      <c r="BC16" s="50"/>
-      <c r="BD16" s="50"/>
-      <c r="BE16" s="50"/>
-      <c r="BF16" s="50"/>
-      <c r="BG16" s="50"/>
-      <c r="BH16" s="50"/>
-      <c r="BI16" s="50"/>
-      <c r="BJ16" s="50"/>
-      <c r="BK16" s="50"/>
-      <c r="BL16" s="50"/>
-      <c r="BM16" s="50"/>
-      <c r="BN16" s="50"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="46"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="46"/>
+      <c r="AY16" s="46"/>
+      <c r="AZ16" s="46"/>
+      <c r="BA16" s="46"/>
+      <c r="BB16" s="46"/>
+      <c r="BC16" s="46"/>
+      <c r="BD16" s="46"/>
+      <c r="BE16" s="46"/>
+      <c r="BF16" s="46"/>
+      <c r="BG16" s="46"/>
+      <c r="BH16" s="46"/>
+      <c r="BI16" s="46"/>
+      <c r="BJ16" s="46"/>
+      <c r="BK16" s="46"/>
+      <c r="BL16" s="46"/>
+      <c r="BM16" s="46"/>
+      <c r="BN16" s="46"/>
+      <c r="BO16" s="46"/>
     </row>
-    <row r="17" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="str">
+    <row r="17" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A17" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.4</v>
       </c>
-      <c r="B17" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="46">
+      <c r="B17" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="42">
         <v>43189</v>
       </c>
-      <c r="F17" s="47">
-        <f t="shared" ref="F17" si="18">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v>43195</v>
-      </c>
-      <c r="G17" s="29">
+      <c r="G17" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H17" s="25">
         <v>7</v>
       </c>
-      <c r="H17" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="I17" s="31">
-        <f t="shared" ref="I17" si="19">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
-        <v>5</v>
-      </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="50"/>
-      <c r="AZ17" s="50"/>
-      <c r="BA17" s="50"/>
-      <c r="BB17" s="50"/>
-      <c r="BC17" s="50"/>
-      <c r="BD17" s="50"/>
-      <c r="BE17" s="50"/>
-      <c r="BF17" s="50"/>
-      <c r="BG17" s="50"/>
-      <c r="BH17" s="50"/>
-      <c r="BI17" s="50"/>
-      <c r="BJ17" s="50"/>
-      <c r="BK17" s="50"/>
-      <c r="BL17" s="50"/>
-      <c r="BM17" s="50"/>
-      <c r="BN17" s="50"/>
+      <c r="I17" s="26">
+        <v>1</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" ref="J17" si="16">IF(OR(G17=0,F17=0)," - ",NETWORKDAYS(F17,G17))</f>
+        <v>14</v>
+      </c>
+      <c r="K17" s="40"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="46"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46"/>
+      <c r="AY17" s="46"/>
+      <c r="AZ17" s="46"/>
+      <c r="BA17" s="46"/>
+      <c r="BB17" s="46"/>
+      <c r="BC17" s="46"/>
+      <c r="BD17" s="46"/>
+      <c r="BE17" s="46"/>
+      <c r="BF17" s="46"/>
+      <c r="BG17" s="46"/>
+      <c r="BH17" s="46"/>
+      <c r="BI17" s="46"/>
+      <c r="BJ17" s="46"/>
+      <c r="BK17" s="46"/>
+      <c r="BL17" s="46"/>
+      <c r="BM17" s="46"/>
+      <c r="BN17" s="46"/>
+      <c r="BO17" s="46"/>
     </row>
-    <row r="18" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="str">
+    <row r="18" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A18" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.5</v>
       </c>
-      <c r="B18" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="46">
+      <c r="B18" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="65"/>
+      <c r="F18" s="42">
         <v>43189</v>
       </c>
-      <c r="F18" s="47">
-        <f t="shared" ref="F18" si="20">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+      <c r="G18" s="43">
+        <f t="shared" ref="G18" si="17">IF(ISBLANK(F18)," - ",IF(H18=0,F18,F18+H18-1))</f>
         <v>43195</v>
       </c>
-      <c r="G18" s="29">
+      <c r="H18" s="25">
         <v>7</v>
       </c>
-      <c r="H18" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="I18" s="31">
-        <f t="shared" ref="I18" si="21">IF(OR(F18=0,E18=0)," - ",NETWORKDAYS(E18,F18))</f>
+      <c r="I18" s="26">
+        <v>1</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" ref="J18" si="18">IF(OR(G18=0,F18=0)," - ",NETWORKDAYS(F18,G18))</f>
         <v>5</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50"/>
-      <c r="BK18" s="50"/>
-      <c r="BL18" s="50"/>
-      <c r="BM18" s="50"/>
-      <c r="BN18" s="50"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="46"/>
+      <c r="BA18" s="46"/>
+      <c r="BB18" s="46"/>
+      <c r="BC18" s="46"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="46"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="46"/>
+      <c r="BI18" s="46"/>
+      <c r="BJ18" s="46"/>
+      <c r="BK18" s="46"/>
+      <c r="BL18" s="46"/>
+      <c r="BM18" s="46"/>
+      <c r="BN18" s="46"/>
+      <c r="BO18" s="46"/>
     </row>
-    <row r="19" spans="1:66" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="str">
+    <row r="19" spans="1:67" s="18" customFormat="1" ht="18">
+      <c r="A19" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="46">
-        <v>43189</v>
-      </c>
-      <c r="F19" s="48">
-        <f t="shared" si="11"/>
-        <v>43193</v>
-      </c>
-      <c r="G19" s="24">
-        <v>5</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26">
-        <f>IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
-        <v>3</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="51"/>
-      <c r="AZ19" s="51"/>
-      <c r="BA19" s="51"/>
-      <c r="BB19" s="51"/>
-      <c r="BC19" s="51"/>
-      <c r="BD19" s="51"/>
-      <c r="BE19" s="51"/>
-      <c r="BF19" s="51"/>
-      <c r="BG19" s="51"/>
-      <c r="BH19" s="51"/>
-      <c r="BI19" s="51"/>
-      <c r="BJ19" s="51"/>
-      <c r="BK19" s="51"/>
-      <c r="BL19" s="51"/>
-      <c r="BM19" s="51"/>
-      <c r="BN19" s="51"/>
+      <c r="B19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="47"/>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="47"/>
+      <c r="BE19" s="47"/>
+      <c r="BF19" s="47"/>
+      <c r="BG19" s="47"/>
+      <c r="BH19" s="47"/>
+      <c r="BI19" s="47"/>
+      <c r="BJ19" s="47"/>
+      <c r="BK19" s="47"/>
+      <c r="BL19" s="47"/>
+      <c r="BM19" s="47"/>
+      <c r="BN19" s="47"/>
+      <c r="BO19" s="47"/>
     </row>
-    <row r="20" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="str">
+    <row r="20" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A20" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B20" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="46">
+      <c r="B20" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="65"/>
+      <c r="F20" s="42">
         <v>43189</v>
       </c>
-      <c r="F20" s="47">
-        <f>IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>43191</v>
-      </c>
-      <c r="G20" s="29">
+      <c r="G20" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H20" s="25">
         <v>3</v>
       </c>
-      <c r="H20" s="30">
+      <c r="I20" s="26">
         <v>1</v>
       </c>
-      <c r="I20" s="31">
-        <f>IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="50"/>
-      <c r="AI20" s="50"/>
-      <c r="AJ20" s="50"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="50"/>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="50"/>
-      <c r="AU20" s="50"/>
-      <c r="AV20" s="50"/>
-      <c r="AW20" s="50"/>
-      <c r="AX20" s="50"/>
-      <c r="AY20" s="50"/>
-      <c r="AZ20" s="50"/>
-      <c r="BA20" s="50"/>
-      <c r="BB20" s="50"/>
-      <c r="BC20" s="50"/>
-      <c r="BD20" s="50"/>
-      <c r="BE20" s="50"/>
-      <c r="BF20" s="50"/>
-      <c r="BG20" s="50"/>
-      <c r="BH20" s="50"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="50"/>
-      <c r="BK20" s="50"/>
-      <c r="BL20" s="50"/>
-      <c r="BM20" s="50"/>
-      <c r="BN20" s="50"/>
+      <c r="J20" s="27">
+        <f>IF(OR(G20=0,F20=0)," - ",NETWORKDAYS(F20,G20))</f>
+        <v>14</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="46"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="46"/>
+      <c r="AV20" s="46"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="46"/>
+      <c r="AY20" s="46"/>
+      <c r="AZ20" s="46"/>
+      <c r="BA20" s="46"/>
+      <c r="BB20" s="46"/>
+      <c r="BC20" s="46"/>
+      <c r="BD20" s="46"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="46"/>
+      <c r="BG20" s="46"/>
+      <c r="BH20" s="46"/>
+      <c r="BI20" s="46"/>
+      <c r="BJ20" s="46"/>
+      <c r="BK20" s="46"/>
+      <c r="BL20" s="46"/>
+      <c r="BM20" s="46"/>
+      <c r="BN20" s="46"/>
+      <c r="BO20" s="46"/>
     </row>
-    <row r="21" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="str">
+    <row r="21" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A21" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
-      <c r="B21" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="46">
+      <c r="B21" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="65"/>
+      <c r="F21" s="42">
         <v>43189</v>
       </c>
-      <c r="F21" s="47">
-        <f>IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
-        <v>43191</v>
-      </c>
-      <c r="G21" s="29">
+      <c r="G21" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H21" s="25">
         <v>3</v>
       </c>
-      <c r="H21" s="30">
+      <c r="I21" s="26">
         <v>1</v>
       </c>
-      <c r="I21" s="31">
-        <f>IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="50"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="50"/>
-      <c r="AZ21" s="50"/>
-      <c r="BA21" s="50"/>
-      <c r="BB21" s="50"/>
-      <c r="BC21" s="50"/>
-      <c r="BD21" s="50"/>
-      <c r="BE21" s="50"/>
-      <c r="BF21" s="50"/>
-      <c r="BG21" s="50"/>
-      <c r="BH21" s="50"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="50"/>
-      <c r="BK21" s="50"/>
-      <c r="BL21" s="50"/>
-      <c r="BM21" s="50"/>
-      <c r="BN21" s="50"/>
+      <c r="J21" s="27">
+        <f>IF(OR(G21=0,F21=0)," - ",NETWORKDAYS(F21,G21))</f>
+        <v>14</v>
+      </c>
+      <c r="K21" s="40"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="46"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="46"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="46"/>
+      <c r="BJ21" s="46"/>
+      <c r="BK21" s="46"/>
+      <c r="BL21" s="46"/>
+      <c r="BM21" s="46"/>
+      <c r="BN21" s="46"/>
+      <c r="BO21" s="46"/>
     </row>
-    <row r="22" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="str">
+    <row r="22" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A22" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="46">
+      <c r="B22" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="F22" s="42">
         <v>43189</v>
       </c>
-      <c r="F22" s="47">
-        <f t="shared" si="11"/>
-        <v>43193</v>
-      </c>
-      <c r="G22" s="29">
+      <c r="G22" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H22" s="25">
         <v>5</v>
       </c>
-      <c r="H22" s="30">
+      <c r="I22" s="26">
         <v>1</v>
       </c>
-      <c r="I22" s="31">
+      <c r="J22" s="27">
         <v>3</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="50"/>
-      <c r="AZ22" s="50"/>
-      <c r="BA22" s="50"/>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="50"/>
-      <c r="BD22" s="50"/>
-      <c r="BE22" s="50"/>
-      <c r="BF22" s="50"/>
-      <c r="BG22" s="50"/>
-      <c r="BH22" s="50"/>
-      <c r="BI22" s="50"/>
-      <c r="BJ22" s="50"/>
-      <c r="BK22" s="50"/>
-      <c r="BL22" s="50"/>
-      <c r="BM22" s="50"/>
-      <c r="BN22" s="50"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="46"/>
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="46"/>
+      <c r="AT22" s="46"/>
+      <c r="AU22" s="46"/>
+      <c r="AV22" s="46"/>
+      <c r="AW22" s="46"/>
+      <c r="AX22" s="46"/>
+      <c r="AY22" s="46"/>
+      <c r="AZ22" s="46"/>
+      <c r="BA22" s="46"/>
+      <c r="BB22" s="46"/>
+      <c r="BC22" s="46"/>
+      <c r="BD22" s="46"/>
+      <c r="BE22" s="46"/>
+      <c r="BF22" s="46"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="46"/>
+      <c r="BI22" s="46"/>
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="46"/>
+      <c r="BL22" s="46"/>
+      <c r="BM22" s="46"/>
+      <c r="BN22" s="46"/>
+      <c r="BO22" s="46"/>
     </row>
-    <row r="23" spans="1:66" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="str">
+    <row r="23" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A23" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B23" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="46">
+      <c r="B23" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="65"/>
+      <c r="F23" s="42">
         <v>43189</v>
       </c>
-      <c r="F23" s="47">
-        <f t="shared" si="11"/>
-        <v>43195</v>
-      </c>
-      <c r="G23" s="29">
+      <c r="G23" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H23" s="25">
         <v>7</v>
       </c>
-      <c r="H23" s="30">
-        <v>0</v>
-      </c>
-      <c r="I23" s="31">
+      <c r="I23" s="26">
+        <v>1</v>
+      </c>
+      <c r="J23" s="27">
         <v>5</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="50"/>
-      <c r="AJ23" s="50"/>
-      <c r="AK23" s="50"/>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="50"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="50"/>
-      <c r="AR23" s="50"/>
-      <c r="AS23" s="50"/>
-      <c r="AT23" s="50"/>
-      <c r="AU23" s="50"/>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
-      <c r="BB23" s="50"/>
-      <c r="BC23" s="50"/>
-      <c r="BD23" s="50"/>
-      <c r="BE23" s="50"/>
-      <c r="BF23" s="50"/>
-      <c r="BG23" s="50"/>
-      <c r="BH23" s="50"/>
-      <c r="BI23" s="50"/>
-      <c r="BJ23" s="50"/>
-      <c r="BK23" s="50"/>
-      <c r="BL23" s="50"/>
-      <c r="BM23" s="50"/>
-      <c r="BN23" s="50"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="46"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="46"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
+      <c r="BB23" s="46"/>
+      <c r="BC23" s="46"/>
+      <c r="BD23" s="46"/>
+      <c r="BE23" s="46"/>
+      <c r="BF23" s="46"/>
+      <c r="BG23" s="46"/>
+      <c r="BH23" s="46"/>
+      <c r="BI23" s="46"/>
+      <c r="BJ23" s="46"/>
+      <c r="BK23" s="46"/>
+      <c r="BL23" s="46"/>
+      <c r="BM23" s="46"/>
+      <c r="BN23" s="46"/>
+      <c r="BO23" s="46"/>
     </row>
-    <row r="24" spans="1:66" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="str">
+    <row r="24" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A24" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
       </c>
-      <c r="B24" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="46">
+      <c r="B24" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="65"/>
+      <c r="F24" s="42">
         <v>43193</v>
       </c>
-      <c r="F24" s="47">
-        <f t="shared" ref="F24" si="22">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
-        <v>43196</v>
-      </c>
-      <c r="G24" s="29">
+      <c r="G24" s="43">
+        <v>43207</v>
+      </c>
+      <c r="H24" s="25">
         <v>4</v>
       </c>
-      <c r="H24" s="30">
+      <c r="I24" s="26">
+        <v>1</v>
+      </c>
+      <c r="J24" s="27">
+        <f t="shared" ref="J24" si="19">IF(OR(G24=0,F24=0)," - ",NETWORKDAYS(F24,G24))</f>
+        <v>11</v>
+      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="46"/>
+      <c r="AS24" s="46"/>
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="46"/>
+      <c r="AV24" s="46"/>
+      <c r="AW24" s="46"/>
+      <c r="AX24" s="46"/>
+      <c r="AY24" s="46"/>
+      <c r="AZ24" s="46"/>
+      <c r="BA24" s="46"/>
+      <c r="BB24" s="46"/>
+      <c r="BC24" s="46"/>
+      <c r="BD24" s="46"/>
+      <c r="BE24" s="46"/>
+      <c r="BF24" s="46"/>
+      <c r="BG24" s="46"/>
+      <c r="BH24" s="46"/>
+      <c r="BI24" s="46"/>
+      <c r="BJ24" s="46"/>
+      <c r="BK24" s="46"/>
+      <c r="BL24" s="46"/>
+      <c r="BM24" s="46"/>
+      <c r="BN24" s="46"/>
+      <c r="BO24" s="46"/>
+    </row>
+    <row r="25" spans="1:67" s="18" customFormat="1" ht="18">
+      <c r="A25" s="16">
+        <v>3</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="47"/>
+      <c r="BB25" s="47"/>
+      <c r="BC25" s="47"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="47"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="47"/>
+      <c r="BI25" s="47"/>
+      <c r="BJ25" s="47"/>
+      <c r="BK25" s="47"/>
+      <c r="BL25" s="47"/>
+      <c r="BM25" s="47"/>
+      <c r="BN25" s="47"/>
+      <c r="BO25" s="47"/>
+    </row>
+    <row r="26" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A26" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="65"/>
+      <c r="F26" s="42">
+        <v>43191</v>
+      </c>
+      <c r="G26" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H26" s="25">
+        <v>3</v>
+      </c>
+      <c r="I26" s="26">
         <v>0</v>
       </c>
-      <c r="I24" s="31">
-        <f t="shared" ref="I24" si="23">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
+      <c r="J26" s="27">
+        <v>1</v>
+      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="46"/>
+      <c r="AV26" s="46"/>
+      <c r="AW26" s="46"/>
+      <c r="AX26" s="46"/>
+      <c r="AY26" s="46"/>
+      <c r="AZ26" s="46"/>
+      <c r="BA26" s="46"/>
+      <c r="BB26" s="46"/>
+      <c r="BC26" s="46"/>
+      <c r="BD26" s="46"/>
+      <c r="BE26" s="46"/>
+      <c r="BF26" s="46"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="46"/>
+      <c r="BI26" s="46"/>
+      <c r="BJ26" s="46"/>
+      <c r="BK26" s="46"/>
+      <c r="BL26" s="46"/>
+      <c r="BM26" s="46"/>
+      <c r="BN26" s="46"/>
+      <c r="BO26" s="46"/>
+    </row>
+    <row r="27" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A27" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="42">
+        <v>43191</v>
+      </c>
+      <c r="G27" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H27" s="25">
+        <v>3</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
+      <c r="J27" s="27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
+      <c r="AM27" s="46"/>
+      <c r="AN27" s="46"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="46"/>
+      <c r="AR27" s="46"/>
+      <c r="AS27" s="46"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="46"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="46"/>
+      <c r="AY27" s="46"/>
+      <c r="AZ27" s="46"/>
+      <c r="BA27" s="46"/>
+      <c r="BB27" s="46"/>
+      <c r="BC27" s="46"/>
+      <c r="BD27" s="46"/>
+      <c r="BE27" s="46"/>
+      <c r="BF27" s="46"/>
+      <c r="BG27" s="46"/>
+      <c r="BH27" s="46"/>
+      <c r="BI27" s="46"/>
+      <c r="BJ27" s="46"/>
+      <c r="BK27" s="46"/>
+      <c r="BL27" s="46"/>
+      <c r="BM27" s="46"/>
+      <c r="BN27" s="46"/>
+      <c r="BO27" s="46"/>
+    </row>
+    <row r="28" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A28" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="42">
+        <v>43191</v>
+      </c>
+      <c r="G28" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H28" s="25">
+        <v>7</v>
+      </c>
+      <c r="I28" s="26">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27">
+        <v>5</v>
+      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="46"/>
+      <c r="AS28" s="46"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="46"/>
+      <c r="AZ28" s="46"/>
+      <c r="BA28" s="46"/>
+      <c r="BB28" s="46"/>
+      <c r="BC28" s="46"/>
+      <c r="BD28" s="46"/>
+      <c r="BE28" s="46"/>
+      <c r="BF28" s="46"/>
+      <c r="BG28" s="46"/>
+      <c r="BH28" s="46"/>
+      <c r="BI28" s="46"/>
+      <c r="BJ28" s="46"/>
+      <c r="BK28" s="46"/>
+      <c r="BL28" s="46"/>
+      <c r="BM28" s="46"/>
+      <c r="BN28" s="46"/>
+      <c r="BO28" s="46"/>
+    </row>
+    <row r="29" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A29" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="65"/>
+      <c r="F29" s="42">
+        <v>43191</v>
+      </c>
+      <c r="G29" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H29" s="25">
         <v>4</v>
       </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="50"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="50"/>
-      <c r="AU24" s="50"/>
-      <c r="AV24" s="50"/>
-      <c r="AW24" s="50"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="50"/>
-      <c r="AZ24" s="50"/>
-      <c r="BA24" s="50"/>
-      <c r="BB24" s="50"/>
-      <c r="BC24" s="50"/>
-      <c r="BD24" s="50"/>
-      <c r="BE24" s="50"/>
-      <c r="BF24" s="50"/>
-      <c r="BG24" s="50"/>
-      <c r="BH24" s="50"/>
-      <c r="BI24" s="50"/>
-      <c r="BJ24" s="50"/>
-      <c r="BK24" s="50"/>
-      <c r="BL24" s="50"/>
-      <c r="BM24" s="50"/>
-      <c r="BN24" s="50"/>
+      <c r="I29" s="26">
+        <v>0</v>
+      </c>
+      <c r="J29" s="27">
+        <v>4</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
+      <c r="AK29" s="46"/>
+      <c r="AL29" s="46"/>
+      <c r="AM29" s="46"/>
+      <c r="AN29" s="46"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="46"/>
+      <c r="AQ29" s="46"/>
+      <c r="AR29" s="46"/>
+      <c r="AS29" s="46"/>
+      <c r="AT29" s="46"/>
+      <c r="AU29" s="46"/>
+      <c r="AV29" s="46"/>
+      <c r="AW29" s="46"/>
+      <c r="AX29" s="46"/>
+      <c r="AY29" s="46"/>
+      <c r="AZ29" s="46"/>
+      <c r="BA29" s="46"/>
+      <c r="BB29" s="46"/>
+      <c r="BC29" s="46"/>
+      <c r="BD29" s="46"/>
+      <c r="BE29" s="46"/>
+      <c r="BF29" s="46"/>
+      <c r="BG29" s="46"/>
+      <c r="BH29" s="46"/>
+      <c r="BI29" s="46"/>
+      <c r="BJ29" s="46"/>
+      <c r="BK29" s="46"/>
+      <c r="BL29" s="46"/>
+      <c r="BM29" s="46"/>
+      <c r="BN29" s="46"/>
+      <c r="BO29" s="46"/>
     </row>
-    <row r="25" spans="1:66" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="10"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="10"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="10"/>
-      <c r="BF25" s="10"/>
-      <c r="BG25" s="10"/>
-      <c r="BH25" s="10"/>
-      <c r="BI25" s="10"/>
-      <c r="BJ25" s="10"/>
-      <c r="BK25" s="10"/>
-      <c r="BL25" s="10"/>
-      <c r="BM25" s="10"/>
-      <c r="BN25" s="10"/>
+    <row r="30" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A30" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="65"/>
+      <c r="F30" s="42">
+        <v>43191</v>
+      </c>
+      <c r="G30" s="43">
+        <v>43208</v>
+      </c>
+      <c r="H30" s="25">
+        <v>4</v>
+      </c>
+      <c r="I30" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J30" s="27">
+        <v>4</v>
+      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="46"/>
+      <c r="AN30" s="46"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
+      <c r="AT30" s="46"/>
+      <c r="AU30" s="46"/>
+      <c r="AV30" s="46"/>
+      <c r="AW30" s="46"/>
+      <c r="AX30" s="46"/>
+      <c r="AY30" s="46"/>
+      <c r="AZ30" s="46"/>
+      <c r="BA30" s="46"/>
+      <c r="BB30" s="46"/>
+      <c r="BC30" s="46"/>
+      <c r="BD30" s="46"/>
+      <c r="BE30" s="46"/>
+      <c r="BF30" s="46"/>
+      <c r="BG30" s="46"/>
+      <c r="BH30" s="46"/>
+      <c r="BI30" s="46"/>
+      <c r="BJ30" s="46"/>
+      <c r="BK30" s="46"/>
+      <c r="BL30" s="46"/>
+      <c r="BM30" s="46"/>
+      <c r="BN30" s="46"/>
+      <c r="BO30" s="46"/>
+    </row>
+    <row r="31" spans="1:67" s="18" customFormat="1" ht="18">
+      <c r="A31" s="16">
+        <v>4</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
+      <c r="BA31" s="47"/>
+      <c r="BB31" s="47"/>
+      <c r="BC31" s="47"/>
+      <c r="BD31" s="47"/>
+      <c r="BE31" s="47"/>
+      <c r="BF31" s="47"/>
+      <c r="BG31" s="47"/>
+      <c r="BH31" s="47"/>
+      <c r="BI31" s="47"/>
+      <c r="BJ31" s="47"/>
+      <c r="BK31" s="47"/>
+      <c r="BL31" s="47"/>
+      <c r="BM31" s="47"/>
+      <c r="BN31" s="47"/>
+      <c r="BO31" s="47"/>
+    </row>
+    <row r="32" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A32" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="65"/>
+      <c r="F32" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G32" s="43">
+        <v>43218</v>
+      </c>
+      <c r="H32" s="25">
+        <v>3</v>
+      </c>
+      <c r="I32" s="26">
+        <v>0</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="46"/>
+      <c r="AN32" s="46"/>
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="46"/>
+      <c r="AR32" s="46"/>
+      <c r="AS32" s="46"/>
+      <c r="AT32" s="46"/>
+      <c r="AU32" s="46"/>
+      <c r="AV32" s="46"/>
+      <c r="AW32" s="46"/>
+      <c r="AX32" s="46"/>
+      <c r="AY32" s="46"/>
+      <c r="AZ32" s="46"/>
+      <c r="BA32" s="46"/>
+      <c r="BB32" s="46"/>
+      <c r="BC32" s="46"/>
+      <c r="BD32" s="46"/>
+      <c r="BE32" s="46"/>
+      <c r="BF32" s="46"/>
+      <c r="BG32" s="46"/>
+      <c r="BH32" s="46"/>
+      <c r="BI32" s="46"/>
+      <c r="BJ32" s="46"/>
+      <c r="BK32" s="46"/>
+      <c r="BL32" s="46"/>
+      <c r="BM32" s="46"/>
+      <c r="BN32" s="46"/>
+      <c r="BO32" s="46"/>
+    </row>
+    <row r="33" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A33" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="65"/>
+      <c r="F33" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G33" s="43">
+        <v>43218</v>
+      </c>
+      <c r="H33" s="25">
+        <v>3</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="40"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="46"/>
+      <c r="AL33" s="46"/>
+      <c r="AM33" s="46"/>
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="46"/>
+      <c r="AU33" s="46"/>
+      <c r="AV33" s="46"/>
+      <c r="AW33" s="46"/>
+      <c r="AX33" s="46"/>
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="46"/>
+      <c r="BC33" s="46"/>
+      <c r="BD33" s="46"/>
+      <c r="BE33" s="46"/>
+      <c r="BF33" s="46"/>
+      <c r="BG33" s="46"/>
+      <c r="BH33" s="46"/>
+      <c r="BI33" s="46"/>
+      <c r="BJ33" s="46"/>
+      <c r="BK33" s="46"/>
+      <c r="BL33" s="46"/>
+      <c r="BM33" s="46"/>
+      <c r="BN33" s="46"/>
+      <c r="BO33" s="46"/>
+    </row>
+    <row r="34" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A34" s="23">
+        <v>4.3</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="65"/>
+      <c r="F34" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G34" s="43">
+        <v>43218</v>
+      </c>
+      <c r="H34" s="25">
+        <v>7</v>
+      </c>
+      <c r="I34" s="26">
+        <v>0</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="40"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="46"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="46"/>
+      <c r="AJ34" s="46"/>
+      <c r="AK34" s="46"/>
+      <c r="AL34" s="46"/>
+      <c r="AM34" s="46"/>
+      <c r="AN34" s="46"/>
+      <c r="AO34" s="46"/>
+      <c r="AP34" s="46"/>
+      <c r="AQ34" s="46"/>
+      <c r="AR34" s="46"/>
+      <c r="AS34" s="46"/>
+      <c r="AT34" s="46"/>
+      <c r="AU34" s="46"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
+      <c r="BB34" s="46"/>
+      <c r="BC34" s="46"/>
+      <c r="BD34" s="46"/>
+      <c r="BE34" s="46"/>
+      <c r="BF34" s="46"/>
+      <c r="BG34" s="46"/>
+      <c r="BH34" s="46"/>
+      <c r="BI34" s="46"/>
+      <c r="BJ34" s="46"/>
+      <c r="BK34" s="46"/>
+      <c r="BL34" s="46"/>
+      <c r="BM34" s="46"/>
+      <c r="BN34" s="46"/>
+      <c r="BO34" s="46"/>
+    </row>
+    <row r="35" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A35" s="23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="65"/>
+      <c r="F35" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G35" s="43">
+        <v>43218</v>
+      </c>
+      <c r="H35" s="25">
+        <v>4</v>
+      </c>
+      <c r="I35" s="26">
+        <v>0</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="40"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="46"/>
+      <c r="AF35" s="46"/>
+      <c r="AG35" s="46"/>
+      <c r="AH35" s="46"/>
+      <c r="AI35" s="46"/>
+      <c r="AJ35" s="46"/>
+      <c r="AK35" s="46"/>
+      <c r="AL35" s="46"/>
+      <c r="AM35" s="46"/>
+      <c r="AN35" s="46"/>
+      <c r="AO35" s="46"/>
+      <c r="AP35" s="46"/>
+      <c r="AQ35" s="46"/>
+      <c r="AR35" s="46"/>
+      <c r="AS35" s="46"/>
+      <c r="AT35" s="46"/>
+      <c r="AU35" s="46"/>
+      <c r="AV35" s="46"/>
+      <c r="AW35" s="46"/>
+      <c r="AX35" s="46"/>
+      <c r="AY35" s="46"/>
+      <c r="AZ35" s="46"/>
+      <c r="BA35" s="46"/>
+      <c r="BB35" s="46"/>
+      <c r="BC35" s="46"/>
+      <c r="BD35" s="46"/>
+      <c r="BE35" s="46"/>
+      <c r="BF35" s="46"/>
+      <c r="BG35" s="46"/>
+      <c r="BH35" s="46"/>
+      <c r="BI35" s="46"/>
+      <c r="BJ35" s="46"/>
+      <c r="BK35" s="46"/>
+      <c r="BL35" s="46"/>
+      <c r="BM35" s="46"/>
+      <c r="BN35" s="46"/>
+      <c r="BO35" s="46"/>
+    </row>
+    <row r="36" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A36" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="65"/>
+      <c r="F36" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G36" s="43">
+        <v>43218</v>
+      </c>
+      <c r="H36" s="25">
+        <v>4</v>
+      </c>
+      <c r="I36" s="26">
+        <v>0</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="40"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="46"/>
+      <c r="AL36" s="46"/>
+      <c r="AM36" s="46"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
+      <c r="AQ36" s="46"/>
+      <c r="AR36" s="46"/>
+      <c r="AS36" s="46"/>
+      <c r="AT36" s="46"/>
+      <c r="AU36" s="46"/>
+      <c r="AV36" s="46"/>
+      <c r="AW36" s="46"/>
+      <c r="AX36" s="46"/>
+      <c r="AY36" s="46"/>
+      <c r="AZ36" s="46"/>
+      <c r="BA36" s="46"/>
+      <c r="BB36" s="46"/>
+      <c r="BC36" s="46"/>
+      <c r="BD36" s="46"/>
+      <c r="BE36" s="46"/>
+      <c r="BF36" s="46"/>
+      <c r="BG36" s="46"/>
+      <c r="BH36" s="46"/>
+      <c r="BI36" s="46"/>
+      <c r="BJ36" s="46"/>
+      <c r="BK36" s="46"/>
+      <c r="BL36" s="46"/>
+      <c r="BM36" s="46"/>
+      <c r="BN36" s="46"/>
+      <c r="BO36" s="46"/>
+    </row>
+    <row r="37" spans="1:67" s="18" customFormat="1" ht="18">
+      <c r="A37" s="16">
+        <v>5</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
+      <c r="AT37" s="47"/>
+      <c r="AU37" s="47"/>
+      <c r="AV37" s="47"/>
+      <c r="AW37" s="47"/>
+      <c r="AX37" s="47"/>
+      <c r="AY37" s="47"/>
+      <c r="AZ37" s="47"/>
+      <c r="BA37" s="47"/>
+      <c r="BB37" s="47"/>
+      <c r="BC37" s="47"/>
+      <c r="BD37" s="47"/>
+      <c r="BE37" s="47"/>
+      <c r="BF37" s="47"/>
+      <c r="BG37" s="47"/>
+      <c r="BH37" s="47"/>
+      <c r="BI37" s="47"/>
+      <c r="BJ37" s="47"/>
+      <c r="BK37" s="47"/>
+      <c r="BL37" s="47"/>
+      <c r="BM37" s="47"/>
+      <c r="BN37" s="47"/>
+      <c r="BO37" s="47"/>
+    </row>
+    <row r="38" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A38" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="65"/>
+      <c r="F38" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G38" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H38" s="25">
+        <v>3</v>
+      </c>
+      <c r="I38" s="26">
+        <v>0</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="40"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
+      <c r="AH38" s="46"/>
+      <c r="AI38" s="46"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="46"/>
+      <c r="AL38" s="46"/>
+      <c r="AM38" s="46"/>
+      <c r="AN38" s="46"/>
+      <c r="AO38" s="46"/>
+      <c r="AP38" s="46"/>
+      <c r="AQ38" s="46"/>
+      <c r="AR38" s="46"/>
+      <c r="AS38" s="46"/>
+      <c r="AT38" s="46"/>
+      <c r="AU38" s="46"/>
+      <c r="AV38" s="46"/>
+      <c r="AW38" s="46"/>
+      <c r="AX38" s="46"/>
+      <c r="AY38" s="46"/>
+      <c r="AZ38" s="46"/>
+      <c r="BA38" s="46"/>
+      <c r="BB38" s="46"/>
+      <c r="BC38" s="46"/>
+      <c r="BD38" s="46"/>
+      <c r="BE38" s="46"/>
+      <c r="BF38" s="46"/>
+      <c r="BG38" s="46"/>
+      <c r="BH38" s="46"/>
+      <c r="BI38" s="46"/>
+      <c r="BJ38" s="46"/>
+      <c r="BK38" s="46"/>
+      <c r="BL38" s="46"/>
+      <c r="BM38" s="46"/>
+      <c r="BN38" s="46"/>
+      <c r="BO38" s="46"/>
+    </row>
+    <row r="39" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A39" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="65"/>
+      <c r="F39" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G39" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H39" s="25">
+        <v>3</v>
+      </c>
+      <c r="I39" s="26">
+        <v>0</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="40"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="46"/>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="46"/>
+      <c r="AI39" s="46"/>
+      <c r="AJ39" s="46"/>
+      <c r="AK39" s="46"/>
+      <c r="AL39" s="46"/>
+      <c r="AM39" s="46"/>
+      <c r="AN39" s="46"/>
+      <c r="AO39" s="46"/>
+      <c r="AP39" s="46"/>
+      <c r="AQ39" s="46"/>
+      <c r="AR39" s="46"/>
+      <c r="AS39" s="46"/>
+      <c r="AT39" s="46"/>
+      <c r="AU39" s="46"/>
+      <c r="AV39" s="46"/>
+      <c r="AW39" s="46"/>
+      <c r="AX39" s="46"/>
+      <c r="AY39" s="46"/>
+      <c r="AZ39" s="46"/>
+      <c r="BA39" s="46"/>
+      <c r="BB39" s="46"/>
+      <c r="BC39" s="46"/>
+      <c r="BD39" s="46"/>
+      <c r="BE39" s="46"/>
+      <c r="BF39" s="46"/>
+      <c r="BG39" s="46"/>
+      <c r="BH39" s="46"/>
+      <c r="BI39" s="46"/>
+      <c r="BJ39" s="46"/>
+      <c r="BK39" s="46"/>
+      <c r="BL39" s="46"/>
+      <c r="BM39" s="46"/>
+      <c r="BN39" s="46"/>
+      <c r="BO39" s="46"/>
+    </row>
+    <row r="40" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A40" s="23">
+        <v>5.3</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G40" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H40" s="25">
+        <v>7</v>
+      </c>
+      <c r="I40" s="26">
+        <v>0</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="40"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="46"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="46"/>
+      <c r="AK40" s="46"/>
+      <c r="AL40" s="46"/>
+      <c r="AM40" s="46"/>
+      <c r="AN40" s="46"/>
+      <c r="AO40" s="46"/>
+      <c r="AP40" s="46"/>
+      <c r="AQ40" s="46"/>
+      <c r="AR40" s="46"/>
+      <c r="AS40" s="46"/>
+      <c r="AT40" s="46"/>
+      <c r="AU40" s="46"/>
+      <c r="AV40" s="46"/>
+      <c r="AW40" s="46"/>
+      <c r="AX40" s="46"/>
+      <c r="AY40" s="46"/>
+      <c r="AZ40" s="46"/>
+      <c r="BA40" s="46"/>
+      <c r="BB40" s="46"/>
+      <c r="BC40" s="46"/>
+      <c r="BD40" s="46"/>
+      <c r="BE40" s="46"/>
+      <c r="BF40" s="46"/>
+      <c r="BG40" s="46"/>
+      <c r="BH40" s="46"/>
+      <c r="BI40" s="46"/>
+      <c r="BJ40" s="46"/>
+      <c r="BK40" s="46"/>
+      <c r="BL40" s="46"/>
+      <c r="BM40" s="46"/>
+      <c r="BN40" s="46"/>
+      <c r="BO40" s="46"/>
+    </row>
+    <row r="41" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A41" s="23">
+        <v>5.4</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="65"/>
+      <c r="F41" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G41" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H41" s="25">
+        <v>4</v>
+      </c>
+      <c r="I41" s="26">
+        <v>0</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="40"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="46"/>
+      <c r="AE41" s="46"/>
+      <c r="AF41" s="46"/>
+      <c r="AG41" s="46"/>
+      <c r="AH41" s="46"/>
+      <c r="AI41" s="46"/>
+      <c r="AJ41" s="46"/>
+      <c r="AK41" s="46"/>
+      <c r="AL41" s="46"/>
+      <c r="AM41" s="46"/>
+      <c r="AN41" s="46"/>
+      <c r="AO41" s="46"/>
+      <c r="AP41" s="46"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="46"/>
+      <c r="AT41" s="46"/>
+      <c r="AU41" s="46"/>
+      <c r="AV41" s="46"/>
+      <c r="AW41" s="46"/>
+      <c r="AX41" s="46"/>
+      <c r="AY41" s="46"/>
+      <c r="AZ41" s="46"/>
+      <c r="BA41" s="46"/>
+      <c r="BB41" s="46"/>
+      <c r="BC41" s="46"/>
+      <c r="BD41" s="46"/>
+      <c r="BE41" s="46"/>
+      <c r="BF41" s="46"/>
+      <c r="BG41" s="46"/>
+      <c r="BH41" s="46"/>
+      <c r="BI41" s="46"/>
+      <c r="BJ41" s="46"/>
+      <c r="BK41" s="46"/>
+      <c r="BL41" s="46"/>
+      <c r="BM41" s="46"/>
+      <c r="BN41" s="46"/>
+      <c r="BO41" s="46"/>
+    </row>
+    <row r="42" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A42" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G42" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H42" s="25">
+        <v>4</v>
+      </c>
+      <c r="I42" s="26">
+        <v>0</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="40"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="46"/>
+      <c r="AJ42" s="46"/>
+      <c r="AK42" s="46"/>
+      <c r="AL42" s="46"/>
+      <c r="AM42" s="46"/>
+      <c r="AN42" s="46"/>
+      <c r="AO42" s="46"/>
+      <c r="AP42" s="46"/>
+      <c r="AQ42" s="46"/>
+      <c r="AR42" s="46"/>
+      <c r="AS42" s="46"/>
+      <c r="AT42" s="46"/>
+      <c r="AU42" s="46"/>
+      <c r="AV42" s="46"/>
+      <c r="AW42" s="46"/>
+      <c r="AX42" s="46"/>
+      <c r="AY42" s="46"/>
+      <c r="AZ42" s="46"/>
+      <c r="BA42" s="46"/>
+      <c r="BB42" s="46"/>
+      <c r="BC42" s="46"/>
+      <c r="BD42" s="46"/>
+      <c r="BE42" s="46"/>
+      <c r="BF42" s="46"/>
+      <c r="BG42" s="46"/>
+      <c r="BH42" s="46"/>
+      <c r="BI42" s="46"/>
+      <c r="BJ42" s="46"/>
+      <c r="BK42" s="46"/>
+      <c r="BL42" s="46"/>
+      <c r="BM42" s="46"/>
+      <c r="BN42" s="46"/>
+      <c r="BO42" s="46"/>
+    </row>
+    <row r="43" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A43" s="23">
+        <v>5.6</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="65"/>
+      <c r="F43" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G43" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H43" s="25">
+        <v>3</v>
+      </c>
+      <c r="I43" s="26">
+        <v>0</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="40"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="46"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="46"/>
+      <c r="AI43" s="46"/>
+      <c r="AJ43" s="46"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="46"/>
+      <c r="AM43" s="46"/>
+      <c r="AN43" s="46"/>
+      <c r="AO43" s="46"/>
+      <c r="AP43" s="46"/>
+      <c r="AQ43" s="46"/>
+      <c r="AR43" s="46"/>
+      <c r="AS43" s="46"/>
+      <c r="AT43" s="46"/>
+      <c r="AU43" s="46"/>
+      <c r="AV43" s="46"/>
+      <c r="AW43" s="46"/>
+      <c r="AX43" s="46"/>
+      <c r="AY43" s="46"/>
+      <c r="AZ43" s="46"/>
+      <c r="BA43" s="46"/>
+      <c r="BB43" s="46"/>
+      <c r="BC43" s="46"/>
+      <c r="BD43" s="46"/>
+      <c r="BE43" s="46"/>
+      <c r="BF43" s="46"/>
+      <c r="BG43" s="46"/>
+      <c r="BH43" s="46"/>
+      <c r="BI43" s="46"/>
+      <c r="BJ43" s="46"/>
+      <c r="BK43" s="46"/>
+      <c r="BL43" s="46"/>
+      <c r="BM43" s="46"/>
+      <c r="BN43" s="46"/>
+      <c r="BO43" s="46"/>
+    </row>
+    <row r="44" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A44" s="23">
+        <v>5.7</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G44" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H44" s="25">
+        <v>3</v>
+      </c>
+      <c r="I44" s="26">
+        <v>0</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="40"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="46"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
+      <c r="AH44" s="46"/>
+      <c r="AI44" s="46"/>
+      <c r="AJ44" s="46"/>
+      <c r="AK44" s="46"/>
+      <c r="AL44" s="46"/>
+      <c r="AM44" s="46"/>
+      <c r="AN44" s="46"/>
+      <c r="AO44" s="46"/>
+      <c r="AP44" s="46"/>
+      <c r="AQ44" s="46"/>
+      <c r="AR44" s="46"/>
+      <c r="AS44" s="46"/>
+      <c r="AT44" s="46"/>
+      <c r="AU44" s="46"/>
+      <c r="AV44" s="46"/>
+      <c r="AW44" s="46"/>
+      <c r="AX44" s="46"/>
+      <c r="AY44" s="46"/>
+      <c r="AZ44" s="46"/>
+      <c r="BA44" s="46"/>
+      <c r="BB44" s="46"/>
+      <c r="BC44" s="46"/>
+      <c r="BD44" s="46"/>
+      <c r="BE44" s="46"/>
+      <c r="BF44" s="46"/>
+      <c r="BG44" s="46"/>
+      <c r="BH44" s="46"/>
+      <c r="BI44" s="46"/>
+      <c r="BJ44" s="46"/>
+      <c r="BK44" s="46"/>
+      <c r="BL44" s="46"/>
+      <c r="BM44" s="46"/>
+      <c r="BN44" s="46"/>
+      <c r="BO44" s="46"/>
+    </row>
+    <row r="45" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A45" s="23">
+        <v>5.8</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G45" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H45" s="25">
+        <v>7</v>
+      </c>
+      <c r="I45" s="26">
+        <v>0</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="40"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="46"/>
+      <c r="AB45" s="46"/>
+      <c r="AC45" s="46"/>
+      <c r="AD45" s="46"/>
+      <c r="AE45" s="46"/>
+      <c r="AF45" s="46"/>
+      <c r="AG45" s="46"/>
+      <c r="AH45" s="46"/>
+      <c r="AI45" s="46"/>
+      <c r="AJ45" s="46"/>
+      <c r="AK45" s="46"/>
+      <c r="AL45" s="46"/>
+      <c r="AM45" s="46"/>
+      <c r="AN45" s="46"/>
+      <c r="AO45" s="46"/>
+      <c r="AP45" s="46"/>
+      <c r="AQ45" s="46"/>
+      <c r="AR45" s="46"/>
+      <c r="AS45" s="46"/>
+      <c r="AT45" s="46"/>
+      <c r="AU45" s="46"/>
+      <c r="AV45" s="46"/>
+      <c r="AW45" s="46"/>
+      <c r="AX45" s="46"/>
+      <c r="AY45" s="46"/>
+      <c r="AZ45" s="46"/>
+      <c r="BA45" s="46"/>
+      <c r="BB45" s="46"/>
+      <c r="BC45" s="46"/>
+      <c r="BD45" s="46"/>
+      <c r="BE45" s="46"/>
+      <c r="BF45" s="46"/>
+      <c r="BG45" s="46"/>
+      <c r="BH45" s="46"/>
+      <c r="BI45" s="46"/>
+      <c r="BJ45" s="46"/>
+      <c r="BK45" s="46"/>
+      <c r="BL45" s="46"/>
+      <c r="BM45" s="46"/>
+      <c r="BN45" s="46"/>
+      <c r="BO45" s="46"/>
+    </row>
+    <row r="46" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A46" s="23">
+        <v>5.9</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="65"/>
+      <c r="F46" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G46" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H46" s="25">
+        <v>7</v>
+      </c>
+      <c r="I46" s="26">
+        <v>0</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="40"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="46"/>
+      <c r="AC46" s="46"/>
+      <c r="AD46" s="46"/>
+      <c r="AE46" s="46"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="46"/>
+      <c r="AH46" s="46"/>
+      <c r="AI46" s="46"/>
+      <c r="AJ46" s="46"/>
+      <c r="AK46" s="46"/>
+      <c r="AL46" s="46"/>
+      <c r="AM46" s="46"/>
+      <c r="AN46" s="46"/>
+      <c r="AO46" s="46"/>
+      <c r="AP46" s="46"/>
+      <c r="AQ46" s="46"/>
+      <c r="AR46" s="46"/>
+      <c r="AS46" s="46"/>
+      <c r="AT46" s="46"/>
+      <c r="AU46" s="46"/>
+      <c r="AV46" s="46"/>
+      <c r="AW46" s="46"/>
+      <c r="AX46" s="46"/>
+      <c r="AY46" s="46"/>
+      <c r="AZ46" s="46"/>
+      <c r="BA46" s="46"/>
+      <c r="BB46" s="46"/>
+      <c r="BC46" s="46"/>
+      <c r="BD46" s="46"/>
+      <c r="BE46" s="46"/>
+      <c r="BF46" s="46"/>
+      <c r="BG46" s="46"/>
+      <c r="BH46" s="46"/>
+      <c r="BI46" s="46"/>
+      <c r="BJ46" s="46"/>
+      <c r="BK46" s="46"/>
+      <c r="BL46" s="46"/>
+      <c r="BM46" s="46"/>
+      <c r="BN46" s="46"/>
+      <c r="BO46" s="46"/>
+    </row>
+    <row r="47" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A47" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="65"/>
+      <c r="F47" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G47" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H47" s="25">
+        <v>4</v>
+      </c>
+      <c r="I47" s="26">
+        <v>0</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="40"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
+      <c r="AA47" s="46"/>
+      <c r="AB47" s="46"/>
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="46"/>
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="46"/>
+      <c r="AH47" s="46"/>
+      <c r="AI47" s="46"/>
+      <c r="AJ47" s="46"/>
+      <c r="AK47" s="46"/>
+      <c r="AL47" s="46"/>
+      <c r="AM47" s="46"/>
+      <c r="AN47" s="46"/>
+      <c r="AO47" s="46"/>
+      <c r="AP47" s="46"/>
+      <c r="AQ47" s="46"/>
+      <c r="AR47" s="46"/>
+      <c r="AS47" s="46"/>
+      <c r="AT47" s="46"/>
+      <c r="AU47" s="46"/>
+      <c r="AV47" s="46"/>
+      <c r="AW47" s="46"/>
+      <c r="AX47" s="46"/>
+      <c r="AY47" s="46"/>
+      <c r="AZ47" s="46"/>
+      <c r="BA47" s="46"/>
+      <c r="BB47" s="46"/>
+      <c r="BC47" s="46"/>
+      <c r="BD47" s="46"/>
+      <c r="BE47" s="46"/>
+      <c r="BF47" s="46"/>
+      <c r="BG47" s="46"/>
+      <c r="BH47" s="46"/>
+      <c r="BI47" s="46"/>
+      <c r="BJ47" s="46"/>
+      <c r="BK47" s="46"/>
+      <c r="BL47" s="46"/>
+      <c r="BM47" s="46"/>
+      <c r="BN47" s="46"/>
+      <c r="BO47" s="46"/>
+    </row>
+    <row r="48" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A48" s="23">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G48" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H48" s="25">
+        <v>4</v>
+      </c>
+      <c r="I48" s="26">
+        <v>0</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="40"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AE48" s="46"/>
+      <c r="AF48" s="46"/>
+      <c r="AG48" s="46"/>
+      <c r="AH48" s="46"/>
+      <c r="AI48" s="46"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
+      <c r="AP48" s="46"/>
+      <c r="AQ48" s="46"/>
+      <c r="AR48" s="46"/>
+      <c r="AS48" s="46"/>
+      <c r="AT48" s="46"/>
+      <c r="AU48" s="46"/>
+      <c r="AV48" s="46"/>
+      <c r="AW48" s="46"/>
+      <c r="AX48" s="46"/>
+      <c r="AY48" s="46"/>
+      <c r="AZ48" s="46"/>
+      <c r="BA48" s="46"/>
+      <c r="BB48" s="46"/>
+      <c r="BC48" s="46"/>
+      <c r="BD48" s="46"/>
+      <c r="BE48" s="46"/>
+      <c r="BF48" s="46"/>
+      <c r="BG48" s="46"/>
+      <c r="BH48" s="46"/>
+      <c r="BI48" s="46"/>
+      <c r="BJ48" s="46"/>
+      <c r="BK48" s="46"/>
+      <c r="BL48" s="46"/>
+      <c r="BM48" s="46"/>
+      <c r="BN48" s="46"/>
+      <c r="BO48" s="46"/>
+    </row>
+    <row r="49" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A49" s="23">
+        <v>5.12</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G49" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H49" s="25">
+        <v>4</v>
+      </c>
+      <c r="I49" s="26">
+        <v>0</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="40"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="46"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="46"/>
+      <c r="AL49" s="46"/>
+      <c r="AM49" s="46"/>
+      <c r="AN49" s="46"/>
+      <c r="AO49" s="46"/>
+      <c r="AP49" s="46"/>
+      <c r="AQ49" s="46"/>
+      <c r="AR49" s="46"/>
+      <c r="AS49" s="46"/>
+      <c r="AT49" s="46"/>
+      <c r="AU49" s="46"/>
+      <c r="AV49" s="46"/>
+      <c r="AW49" s="46"/>
+      <c r="AX49" s="46"/>
+      <c r="AY49" s="46"/>
+      <c r="AZ49" s="46"/>
+      <c r="BA49" s="46"/>
+      <c r="BB49" s="46"/>
+      <c r="BC49" s="46"/>
+      <c r="BD49" s="46"/>
+      <c r="BE49" s="46"/>
+      <c r="BF49" s="46"/>
+      <c r="BG49" s="46"/>
+      <c r="BH49" s="46"/>
+      <c r="BI49" s="46"/>
+      <c r="BJ49" s="46"/>
+      <c r="BK49" s="46"/>
+      <c r="BL49" s="46"/>
+      <c r="BM49" s="46"/>
+      <c r="BN49" s="46"/>
+      <c r="BO49" s="46"/>
+    </row>
+    <row r="50" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A50" s="23">
+        <v>5.13</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="65"/>
+      <c r="F50" s="42">
+        <v>43211</v>
+      </c>
+      <c r="G50" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H50" s="25">
+        <v>4</v>
+      </c>
+      <c r="I50" s="26">
+        <v>0</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="40"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46"/>
+      <c r="AA50" s="46"/>
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="46"/>
+      <c r="AD50" s="46"/>
+      <c r="AE50" s="46"/>
+      <c r="AF50" s="46"/>
+      <c r="AG50" s="46"/>
+      <c r="AH50" s="46"/>
+      <c r="AI50" s="46"/>
+      <c r="AJ50" s="46"/>
+      <c r="AK50" s="46"/>
+      <c r="AL50" s="46"/>
+      <c r="AM50" s="46"/>
+      <c r="AN50" s="46"/>
+      <c r="AO50" s="46"/>
+      <c r="AP50" s="46"/>
+      <c r="AQ50" s="46"/>
+      <c r="AR50" s="46"/>
+      <c r="AS50" s="46"/>
+      <c r="AT50" s="46"/>
+      <c r="AU50" s="46"/>
+      <c r="AV50" s="46"/>
+      <c r="AW50" s="46"/>
+      <c r="AX50" s="46"/>
+      <c r="AY50" s="46"/>
+      <c r="AZ50" s="46"/>
+      <c r="BA50" s="46"/>
+      <c r="BB50" s="46"/>
+      <c r="BC50" s="46"/>
+      <c r="BD50" s="46"/>
+      <c r="BE50" s="46"/>
+      <c r="BF50" s="46"/>
+      <c r="BG50" s="46"/>
+      <c r="BH50" s="46"/>
+      <c r="BI50" s="46"/>
+      <c r="BJ50" s="46"/>
+      <c r="BK50" s="46"/>
+      <c r="BL50" s="46"/>
+      <c r="BM50" s="46"/>
+      <c r="BN50" s="46"/>
+      <c r="BO50" s="46"/>
+    </row>
+    <row r="51" spans="1:67" s="18" customFormat="1" ht="18">
+      <c r="A51" s="16">
+        <v>6</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="47"/>
+      <c r="AI51" s="47"/>
+      <c r="AJ51" s="47"/>
+      <c r="AK51" s="47"/>
+      <c r="AL51" s="47"/>
+      <c r="AM51" s="47"/>
+      <c r="AN51" s="47"/>
+      <c r="AO51" s="47"/>
+      <c r="AP51" s="47"/>
+      <c r="AQ51" s="47"/>
+      <c r="AR51" s="47"/>
+      <c r="AS51" s="47"/>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="47"/>
+      <c r="AV51" s="47"/>
+      <c r="AW51" s="47"/>
+      <c r="AX51" s="47"/>
+      <c r="AY51" s="47"/>
+      <c r="AZ51" s="47"/>
+      <c r="BA51" s="47"/>
+      <c r="BB51" s="47"/>
+      <c r="BC51" s="47"/>
+      <c r="BD51" s="47"/>
+      <c r="BE51" s="47"/>
+      <c r="BF51" s="47"/>
+      <c r="BG51" s="47"/>
+      <c r="BH51" s="47"/>
+      <c r="BI51" s="47"/>
+      <c r="BJ51" s="47"/>
+      <c r="BK51" s="47"/>
+      <c r="BL51" s="47"/>
+      <c r="BM51" s="47"/>
+      <c r="BN51" s="47"/>
+      <c r="BO51" s="47"/>
+    </row>
+    <row r="52" spans="1:67" s="24" customFormat="1" ht="24">
+      <c r="A52" s="23">
+        <v>6.1</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="65"/>
+      <c r="F52" s="42">
+        <v>43218</v>
+      </c>
+      <c r="G52" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H52" s="25">
+        <v>3</v>
+      </c>
+      <c r="I52" s="26">
+        <v>0</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="40"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46"/>
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46"/>
+      <c r="AH52" s="46"/>
+      <c r="AI52" s="46"/>
+      <c r="AJ52" s="46"/>
+      <c r="AK52" s="46"/>
+      <c r="AL52" s="46"/>
+      <c r="AM52" s="46"/>
+      <c r="AN52" s="46"/>
+      <c r="AO52" s="46"/>
+      <c r="AP52" s="46"/>
+      <c r="AQ52" s="46"/>
+      <c r="AR52" s="46"/>
+      <c r="AS52" s="46"/>
+      <c r="AT52" s="46"/>
+      <c r="AU52" s="46"/>
+      <c r="AV52" s="46"/>
+      <c r="AW52" s="46"/>
+      <c r="AX52" s="46"/>
+      <c r="AY52" s="46"/>
+      <c r="AZ52" s="46"/>
+      <c r="BA52" s="46"/>
+      <c r="BB52" s="46"/>
+      <c r="BC52" s="46"/>
+      <c r="BD52" s="46"/>
+      <c r="BE52" s="46"/>
+      <c r="BF52" s="46"/>
+      <c r="BG52" s="46"/>
+      <c r="BH52" s="46"/>
+      <c r="BI52" s="46"/>
+      <c r="BJ52" s="46"/>
+      <c r="BK52" s="46"/>
+      <c r="BL52" s="46"/>
+      <c r="BM52" s="46"/>
+      <c r="BN52" s="46"/>
+      <c r="BO52" s="46"/>
+    </row>
+    <row r="53" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A53" s="23">
+        <v>6.2</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="65"/>
+      <c r="F53" s="42">
+        <v>43218</v>
+      </c>
+      <c r="G53" s="43">
+        <v>43225</v>
+      </c>
+      <c r="H53" s="25">
+        <v>3</v>
+      </c>
+      <c r="I53" s="26">
+        <v>0</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="40"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="46"/>
+      <c r="AB53" s="46"/>
+      <c r="AC53" s="46"/>
+      <c r="AD53" s="46"/>
+      <c r="AE53" s="46"/>
+      <c r="AF53" s="46"/>
+      <c r="AG53" s="46"/>
+      <c r="AH53" s="46"/>
+      <c r="AI53" s="46"/>
+      <c r="AJ53" s="46"/>
+      <c r="AK53" s="46"/>
+      <c r="AL53" s="46"/>
+      <c r="AM53" s="46"/>
+      <c r="AN53" s="46"/>
+      <c r="AO53" s="46"/>
+      <c r="AP53" s="46"/>
+      <c r="AQ53" s="46"/>
+      <c r="AR53" s="46"/>
+      <c r="AS53" s="46"/>
+      <c r="AT53" s="46"/>
+      <c r="AU53" s="46"/>
+      <c r="AV53" s="46"/>
+      <c r="AW53" s="46"/>
+      <c r="AX53" s="46"/>
+      <c r="AY53" s="46"/>
+      <c r="AZ53" s="46"/>
+      <c r="BA53" s="46"/>
+      <c r="BB53" s="46"/>
+      <c r="BC53" s="46"/>
+      <c r="BD53" s="46"/>
+      <c r="BE53" s="46"/>
+      <c r="BF53" s="46"/>
+      <c r="BG53" s="46"/>
+      <c r="BH53" s="46"/>
+      <c r="BI53" s="46"/>
+      <c r="BJ53" s="46"/>
+      <c r="BK53" s="46"/>
+      <c r="BL53" s="46"/>
+      <c r="BM53" s="46"/>
+      <c r="BN53" s="46"/>
+      <c r="BO53" s="46"/>
+    </row>
+    <row r="54" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A54" s="23"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="46"/>
+      <c r="AB54" s="46"/>
+      <c r="AC54" s="46"/>
+      <c r="AD54" s="46"/>
+      <c r="AE54" s="46"/>
+      <c r="AF54" s="46"/>
+      <c r="AG54" s="46"/>
+      <c r="AH54" s="46"/>
+      <c r="AI54" s="46"/>
+      <c r="AJ54" s="46"/>
+      <c r="AK54" s="46"/>
+      <c r="AL54" s="46"/>
+      <c r="AM54" s="46"/>
+      <c r="AN54" s="46"/>
+      <c r="AO54" s="46"/>
+      <c r="AP54" s="46"/>
+      <c r="AQ54" s="46"/>
+      <c r="AR54" s="46"/>
+      <c r="AS54" s="46"/>
+      <c r="AT54" s="46"/>
+      <c r="AU54" s="46"/>
+      <c r="AV54" s="46"/>
+      <c r="AW54" s="46"/>
+      <c r="AX54" s="46"/>
+      <c r="AY54" s="46"/>
+      <c r="AZ54" s="46"/>
+      <c r="BA54" s="46"/>
+      <c r="BB54" s="46"/>
+      <c r="BC54" s="46"/>
+      <c r="BD54" s="46"/>
+      <c r="BE54" s="46"/>
+      <c r="BF54" s="46"/>
+      <c r="BG54" s="46"/>
+      <c r="BH54" s="46"/>
+      <c r="BI54" s="46"/>
+      <c r="BJ54" s="46"/>
+      <c r="BK54" s="46"/>
+      <c r="BL54" s="46"/>
+      <c r="BM54" s="46"/>
+      <c r="BN54" s="46"/>
+      <c r="BO54" s="46"/>
+    </row>
+    <row r="55" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A55" s="23"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="46"/>
+      <c r="AE55" s="46"/>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="46"/>
+      <c r="AH55" s="46"/>
+      <c r="AI55" s="46"/>
+      <c r="AJ55" s="46"/>
+      <c r="AK55" s="46"/>
+      <c r="AL55" s="46"/>
+      <c r="AM55" s="46"/>
+      <c r="AN55" s="46"/>
+      <c r="AO55" s="46"/>
+      <c r="AP55" s="46"/>
+      <c r="AQ55" s="46"/>
+      <c r="AR55" s="46"/>
+      <c r="AS55" s="46"/>
+      <c r="AT55" s="46"/>
+      <c r="AU55" s="46"/>
+      <c r="AV55" s="46"/>
+      <c r="AW55" s="46"/>
+      <c r="AX55" s="46"/>
+      <c r="AY55" s="46"/>
+      <c r="AZ55" s="46"/>
+      <c r="BA55" s="46"/>
+      <c r="BB55" s="46"/>
+      <c r="BC55" s="46"/>
+      <c r="BD55" s="46"/>
+      <c r="BE55" s="46"/>
+      <c r="BF55" s="46"/>
+      <c r="BG55" s="46"/>
+      <c r="BH55" s="46"/>
+      <c r="BI55" s="46"/>
+      <c r="BJ55" s="46"/>
+      <c r="BK55" s="46"/>
+      <c r="BL55" s="46"/>
+      <c r="BM55" s="46"/>
+      <c r="BN55" s="46"/>
+      <c r="BO55" s="46"/>
+    </row>
+    <row r="56" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A56" s="23"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="46"/>
+      <c r="AD56" s="46"/>
+      <c r="AE56" s="46"/>
+      <c r="AF56" s="46"/>
+      <c r="AG56" s="46"/>
+      <c r="AH56" s="46"/>
+      <c r="AI56" s="46"/>
+      <c r="AJ56" s="46"/>
+      <c r="AK56" s="46"/>
+      <c r="AL56" s="46"/>
+      <c r="AM56" s="46"/>
+      <c r="AN56" s="46"/>
+      <c r="AO56" s="46"/>
+      <c r="AP56" s="46"/>
+      <c r="AQ56" s="46"/>
+      <c r="AR56" s="46"/>
+      <c r="AS56" s="46"/>
+      <c r="AT56" s="46"/>
+      <c r="AU56" s="46"/>
+      <c r="AV56" s="46"/>
+      <c r="AW56" s="46"/>
+      <c r="AX56" s="46"/>
+      <c r="AY56" s="46"/>
+      <c r="AZ56" s="46"/>
+      <c r="BA56" s="46"/>
+      <c r="BB56" s="46"/>
+      <c r="BC56" s="46"/>
+      <c r="BD56" s="46"/>
+      <c r="BE56" s="46"/>
+      <c r="BF56" s="46"/>
+      <c r="BG56" s="46"/>
+      <c r="BH56" s="46"/>
+      <c r="BI56" s="46"/>
+      <c r="BJ56" s="46"/>
+      <c r="BK56" s="46"/>
+      <c r="BL56" s="46"/>
+      <c r="BM56" s="46"/>
+      <c r="BN56" s="46"/>
+      <c r="BO56" s="46"/>
+    </row>
+    <row r="57" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A57" s="23"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="46"/>
+      <c r="AB57" s="46"/>
+      <c r="AC57" s="46"/>
+      <c r="AD57" s="46"/>
+      <c r="AE57" s="46"/>
+      <c r="AF57" s="46"/>
+      <c r="AG57" s="46"/>
+      <c r="AH57" s="46"/>
+      <c r="AI57" s="46"/>
+      <c r="AJ57" s="46"/>
+      <c r="AK57" s="46"/>
+      <c r="AL57" s="46"/>
+      <c r="AM57" s="46"/>
+      <c r="AN57" s="46"/>
+      <c r="AO57" s="46"/>
+      <c r="AP57" s="46"/>
+      <c r="AQ57" s="46"/>
+      <c r="AR57" s="46"/>
+      <c r="AS57" s="46"/>
+      <c r="AT57" s="46"/>
+      <c r="AU57" s="46"/>
+      <c r="AV57" s="46"/>
+      <c r="AW57" s="46"/>
+      <c r="AX57" s="46"/>
+      <c r="AY57" s="46"/>
+      <c r="AZ57" s="46"/>
+      <c r="BA57" s="46"/>
+      <c r="BB57" s="46"/>
+      <c r="BC57" s="46"/>
+      <c r="BD57" s="46"/>
+      <c r="BE57" s="46"/>
+      <c r="BF57" s="46"/>
+      <c r="BG57" s="46"/>
+      <c r="BH57" s="46"/>
+      <c r="BI57" s="46"/>
+      <c r="BJ57" s="46"/>
+      <c r="BK57" s="46"/>
+      <c r="BL57" s="46"/>
+      <c r="BM57" s="46"/>
+      <c r="BN57" s="46"/>
+      <c r="BO57" s="46"/>
+    </row>
+    <row r="58" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A58" s="23"/>
+      <c r="C58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
+      <c r="X58" s="46"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46"/>
+      <c r="AA58" s="46"/>
+      <c r="AB58" s="46"/>
+      <c r="AC58" s="46"/>
+      <c r="AD58" s="46"/>
+      <c r="AE58" s="46"/>
+      <c r="AF58" s="46"/>
+      <c r="AG58" s="46"/>
+      <c r="AH58" s="46"/>
+      <c r="AI58" s="46"/>
+      <c r="AJ58" s="46"/>
+      <c r="AK58" s="46"/>
+      <c r="AL58" s="46"/>
+      <c r="AM58" s="46"/>
+      <c r="AN58" s="46"/>
+      <c r="AO58" s="46"/>
+      <c r="AP58" s="46"/>
+      <c r="AQ58" s="46"/>
+      <c r="AR58" s="46"/>
+      <c r="AS58" s="46"/>
+      <c r="AT58" s="46"/>
+      <c r="AU58" s="46"/>
+      <c r="AV58" s="46"/>
+      <c r="AW58" s="46"/>
+      <c r="AX58" s="46"/>
+      <c r="AY58" s="46"/>
+      <c r="AZ58" s="46"/>
+      <c r="BA58" s="46"/>
+      <c r="BB58" s="46"/>
+      <c r="BC58" s="46"/>
+      <c r="BD58" s="46"/>
+      <c r="BE58" s="46"/>
+      <c r="BF58" s="46"/>
+      <c r="BG58" s="46"/>
+      <c r="BH58" s="46"/>
+      <c r="BI58" s="46"/>
+      <c r="BJ58" s="46"/>
+      <c r="BK58" s="46"/>
+      <c r="BL58" s="46"/>
+      <c r="BM58" s="46"/>
+      <c r="BN58" s="46"/>
+      <c r="BO58" s="46"/>
+    </row>
+    <row r="59" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A59" s="23"/>
+      <c r="C59" s="64"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46"/>
+      <c r="AA59" s="46"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="46"/>
+      <c r="AD59" s="46"/>
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="46"/>
+      <c r="AJ59" s="46"/>
+      <c r="AK59" s="46"/>
+      <c r="AL59" s="46"/>
+      <c r="AM59" s="46"/>
+      <c r="AN59" s="46"/>
+      <c r="AO59" s="46"/>
+      <c r="AP59" s="46"/>
+      <c r="AQ59" s="46"/>
+      <c r="AR59" s="46"/>
+      <c r="AS59" s="46"/>
+      <c r="AT59" s="46"/>
+      <c r="AU59" s="46"/>
+      <c r="AV59" s="46"/>
+      <c r="AW59" s="46"/>
+      <c r="AX59" s="46"/>
+      <c r="AY59" s="46"/>
+      <c r="AZ59" s="46"/>
+      <c r="BA59" s="46"/>
+      <c r="BB59" s="46"/>
+      <c r="BC59" s="46"/>
+      <c r="BD59" s="46"/>
+      <c r="BE59" s="46"/>
+      <c r="BF59" s="46"/>
+      <c r="BG59" s="46"/>
+      <c r="BH59" s="46"/>
+      <c r="BI59" s="46"/>
+      <c r="BJ59" s="46"/>
+      <c r="BK59" s="46"/>
+      <c r="BL59" s="46"/>
+      <c r="BM59" s="46"/>
+      <c r="BN59" s="46"/>
+      <c r="BO59" s="46"/>
+    </row>
+    <row r="60" spans="1:67" s="24" customFormat="1" ht="18">
+      <c r="A60" s="23"/>
+      <c r="C60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="46"/>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="46"/>
+      <c r="AC60" s="46"/>
+      <c r="AD60" s="46"/>
+      <c r="AE60" s="46"/>
+      <c r="AF60" s="46"/>
+      <c r="AG60" s="46"/>
+      <c r="AH60" s="46"/>
+      <c r="AI60" s="46"/>
+      <c r="AJ60" s="46"/>
+      <c r="AK60" s="46"/>
+      <c r="AL60" s="46"/>
+      <c r="AM60" s="46"/>
+      <c r="AN60" s="46"/>
+      <c r="AO60" s="46"/>
+      <c r="AP60" s="46"/>
+      <c r="AQ60" s="46"/>
+      <c r="AR60" s="46"/>
+      <c r="AS60" s="46"/>
+      <c r="AT60" s="46"/>
+      <c r="AU60" s="46"/>
+      <c r="AV60" s="46"/>
+      <c r="AW60" s="46"/>
+      <c r="AX60" s="46"/>
+      <c r="AY60" s="46"/>
+      <c r="AZ60" s="46"/>
+      <c r="BA60" s="46"/>
+      <c r="BB60" s="46"/>
+      <c r="BC60" s="46"/>
+      <c r="BD60" s="46"/>
+      <c r="BE60" s="46"/>
+      <c r="BF60" s="46"/>
+      <c r="BG60" s="46"/>
+      <c r="BH60" s="46"/>
+      <c r="BI60" s="46"/>
+      <c r="BJ60" s="46"/>
+      <c r="BK60" s="46"/>
+      <c r="BL60" s="46"/>
+      <c r="BM60" s="46"/>
+      <c r="BN60" s="46"/>
+      <c r="BO60" s="46"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="L1:AF1"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG4:AM4"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="BI4:BO4"/>
+    <mergeCell ref="BI5:BO5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU4:BA4"/>
+    <mergeCell ref="AU5:BA5"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BB5:BH5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H13 H19:H20 H22:H23">
-    <cfRule type="dataBar" priority="42">
+  <conditionalFormatting sqref="I8:I9 I13 I19:I20 I22:I23 I25:I26 I28 I31:I32 I34 I37:I38 I40 I51:I52 I54 I58 I45:I46">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{0A58A75E-4698-465A-8593-F06B91A3A900}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="25" priority="85">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L6:BO7">
+    <cfRule type="expression" dxfId="112" priority="194">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN9 K13:BN17 K19:BN20 K22:BN23">
-    <cfRule type="expression" dxfId="24" priority="88">
-      <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="89">
-      <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
+  <conditionalFormatting sqref="L8:BO9 L13:BO17 L19:BO20 L22:BO23">
+    <cfRule type="expression" dxfId="111" priority="197">
+      <formula>AND($F8&lt;=L$6,ROUNDDOWN(($G8-$F8+1)*$I8,0)+$F8-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="198">
+      <formula>AND(NOT(ISBLANK($F8)),$F8&lt;=L$6,$G8&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN9 K13:BN13 K19:BN20 K22:BN23">
-    <cfRule type="expression" dxfId="22" priority="48">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L6:BO9 L13:BO13 L19:BO20 L22:BO23">
+    <cfRule type="expression" dxfId="109" priority="157">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="I10">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{DEFF3913-EE89-4EA4-9115-9D21A0823048}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="21" priority="39">
-      <formula>AND($E10&lt;=K$6,ROUNDDOWN(($F10-$E10+1)*$H10,0)+$E10-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="40">
-      <formula>AND(NOT(ISBLANK($E10)),$E10&lt;=K$6,$F10&gt;=K$6)</formula>
+  <conditionalFormatting sqref="L10:BO10">
+    <cfRule type="expression" dxfId="108" priority="148">
+      <formula>AND($F10&lt;=L$6,ROUNDDOWN(($G10-$F10+1)*$I10,0)+$F10-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="149">
+      <formula>AND(NOT(ISBLANK($F10)),$F10&lt;=L$6,$G10&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="19" priority="38">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L10:BO10">
+    <cfRule type="expression" dxfId="106" priority="147">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="I11">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{815CD2AB-2E6F-403D-80E7-061609C74EF4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="18" priority="35">
-      <formula>AND($E11&lt;=K$6,ROUNDDOWN(($F11-$E11+1)*$H11,0)+$E11-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="36">
-      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$6,$F11&gt;=K$6)</formula>
+  <conditionalFormatting sqref="L11:BO11">
+    <cfRule type="expression" dxfId="105" priority="144">
+      <formula>AND($F11&lt;=L$6,ROUNDDOWN(($G11-$F11+1)*$I11,0)+$F11-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="145">
+      <formula>AND(NOT(ISBLANK($F11)),$F11&lt;=L$6,$G11&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="16" priority="34">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L11:BO11">
+    <cfRule type="expression" dxfId="103" priority="143">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{4DE783D9-BF2C-4E8C-99D9-D83F49490783}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="15" priority="31">
-      <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="32">
-      <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
+  <conditionalFormatting sqref="L12:BO12">
+    <cfRule type="expression" dxfId="102" priority="140">
+      <formula>AND($F12&lt;=L$6,ROUNDDOWN(($G12-$F12+1)*$I12,0)+$F12-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="141">
+      <formula>AND(NOT(ISBLANK($F12)),$F12&lt;=L$6,$G12&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="13" priority="30">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L12:BO12">
+    <cfRule type="expression" dxfId="100" priority="139">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="I15">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FE3BFC5D-DD1E-4E5C-99FD-C5B93745E00E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="12" priority="26">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L15:BO15">
+    <cfRule type="expression" dxfId="99" priority="135">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7EDD0AA6-9198-408E-AC95-B27467D259D6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="11" priority="22">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L16:BO16">
+    <cfRule type="expression" dxfId="98" priority="131">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F90E373A-CFB8-4601-A0BD-35FE2489FCD0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L17:BO17">
+    <cfRule type="expression" dxfId="97" priority="127">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="I14">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{EF67816D-6580-40EA-AE8D-F4905457C07F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L14:BO14">
+    <cfRule type="expression" dxfId="96" priority="123">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($E18&lt;=K$6,ROUNDDOWN(($F18-$E18+1)*$H18,0)+$E18-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$6,$F18&gt;=K$6)</formula>
+  <conditionalFormatting sqref="L18:BO18">
+    <cfRule type="expression" dxfId="95" priority="120">
+      <formula>AND($F18&lt;=L$6,ROUNDDOWN(($G18-$F18+1)*$I18,0)+$F18-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="121">
+      <formula>AND(NOT(ISBLANK($F18)),$F18&lt;=L$6,$G18&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="I18">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9333D35F-E0E5-49C1-A482-B295DBAEAF5A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L18:BO18">
+    <cfRule type="expression" dxfId="93" priority="119">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="I21 I27 I33 I39 I53 I57 I43:I44">
+    <cfRule type="dataBar" priority="114">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4CB4999D-7F32-4BD0-A21E-79D58F5E0B47}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:BO21">
+    <cfRule type="expression" dxfId="92" priority="116">
+      <formula>AND($F21&lt;=L$6,ROUNDDOWN(($G21-$F21+1)*$I21,0)+$F21-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="117">
+      <formula>AND(NOT(ISBLANK($F21)),$F21&lt;=L$6,$G21&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:BO21">
+    <cfRule type="expression" dxfId="90" priority="115">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I30 I24 I35:I36 I32 I38 I41:I42 I52 I55:I56 I59:I60 I47:I50">
+    <cfRule type="dataBar" priority="110">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FE0A2372-87F7-425B-944F-6D9C2BCFEFD9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:BO24">
+    <cfRule type="expression" dxfId="89" priority="112">
+      <formula>AND($F24&lt;=L$6,ROUNDDOWN(($G24-$F24+1)*$I24,0)+$F24-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="113">
+      <formula>AND(NOT(ISBLANK($F24)),$F24&lt;=L$6,$G24&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:BO24">
+    <cfRule type="expression" dxfId="87" priority="111">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:BO26 L28:BO28">
+    <cfRule type="expression" dxfId="86" priority="107">
+      <formula>AND($F25&lt;=L$6,ROUNDDOWN(($G25-$F25+1)*$I25,0)+$F25-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="108">
+      <formula>AND(NOT(ISBLANK($F25)),$F25&lt;=L$6,$G25&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:BO26 L28:BO28">
+    <cfRule type="expression" dxfId="84" priority="106">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:BO27">
+    <cfRule type="expression" dxfId="83" priority="103">
+      <formula>AND($F27&lt;=L$6,ROUNDDOWN(($G27-$F27+1)*$I27,0)+$F27-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="104">
+      <formula>AND(NOT(ISBLANK($F27)),$F27&lt;=L$6,$G27&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:BO27">
+    <cfRule type="expression" dxfId="81" priority="102">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:BO29">
+    <cfRule type="expression" dxfId="80" priority="99">
+      <formula>AND($F29&lt;=L$6,ROUNDDOWN(($G29-$F29+1)*$I29,0)+$F29-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="100">
+      <formula>AND(NOT(ISBLANK($F29)),$F29&lt;=L$6,$G29&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:BO29">
+    <cfRule type="expression" dxfId="78" priority="98">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:BO30">
+    <cfRule type="expression" dxfId="77" priority="95">
+      <formula>AND($F30&lt;=L$6,ROUNDDOWN(($G30-$F30+1)*$I30,0)+$F30-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="96">
+      <formula>AND(NOT(ISBLANK($F30)),$F30&lt;=L$6,$G30&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:BO30">
+    <cfRule type="expression" dxfId="75" priority="94">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31:BO32 L34:BO34">
+    <cfRule type="expression" dxfId="74" priority="91">
+      <formula>AND($F31&lt;=L$6,ROUNDDOWN(($G31-$F31+1)*$I31,0)+$F31-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="92">
+      <formula>AND(NOT(ISBLANK($F31)),$F31&lt;=L$6,$G31&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31:BO32 L34:BO34">
+    <cfRule type="expression" dxfId="72" priority="90">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33:BO33">
+    <cfRule type="expression" dxfId="71" priority="87">
+      <formula>AND($F33&lt;=L$6,ROUNDDOWN(($G33-$F33+1)*$I33,0)+$F33-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="88">
+      <formula>AND(NOT(ISBLANK($F33)),$F33&lt;=L$6,$G33&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33:BO33">
+    <cfRule type="expression" dxfId="69" priority="86">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:BO35">
+    <cfRule type="expression" dxfId="68" priority="83">
+      <formula>AND($F35&lt;=L$6,ROUNDDOWN(($G35-$F35+1)*$I35,0)+$F35-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="84">
+      <formula>AND(NOT(ISBLANK($F35)),$F35&lt;=L$6,$G35&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:BO35">
+    <cfRule type="expression" dxfId="66" priority="82">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:BO36">
+    <cfRule type="expression" dxfId="65" priority="79">
+      <formula>AND($F36&lt;=L$6,ROUNDDOWN(($G36-$F36+1)*$I36,0)+$F36-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="80">
+      <formula>AND(NOT(ISBLANK($F36)),$F36&lt;=L$6,$G36&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:BO36">
+    <cfRule type="expression" dxfId="63" priority="78">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:BO38 L40:BO40">
+    <cfRule type="expression" dxfId="62" priority="73">
+      <formula>AND($F37&lt;=L$6,ROUNDDOWN(($G37-$F37+1)*$I37,0)+$F37-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="74">
+      <formula>AND(NOT(ISBLANK($F37)),$F37&lt;=L$6,$G37&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:BO38 L40:BO40">
+    <cfRule type="expression" dxfId="60" priority="72">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:BO39">
+    <cfRule type="expression" dxfId="59" priority="68">
+      <formula>AND($F39&lt;=L$6,ROUNDDOWN(($G39-$F39+1)*$I39,0)+$F39-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="69">
+      <formula>AND(NOT(ISBLANK($F39)),$F39&lt;=L$6,$G39&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:BO39">
+    <cfRule type="expression" dxfId="57" priority="67">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:BO41">
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>AND($F41&lt;=L$6,ROUNDDOWN(($G41-$F41+1)*$I41,0)+$F41-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="65">
+      <formula>AND(NOT(ISBLANK($F41)),$F41&lt;=L$6,$G41&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:BO41">
+    <cfRule type="expression" dxfId="54" priority="63">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L42:BO42">
+    <cfRule type="expression" dxfId="53" priority="60">
+      <formula>AND($F42&lt;=L$6,ROUNDDOWN(($G42-$F42+1)*$I42,0)+$F42-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="61">
+      <formula>AND(NOT(ISBLANK($F42)),$F42&lt;=L$6,$G42&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L42:BO42">
+    <cfRule type="expression" dxfId="51" priority="59">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:BO44">
+    <cfRule type="expression" dxfId="50" priority="55">
+      <formula>AND($F43&lt;=L$6,ROUNDDOWN(($G43-$F43+1)*$I43,0)+$F43-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="56">
+      <formula>AND(NOT(ISBLANK($F43)),$F43&lt;=L$6,$G43&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:BO44">
+    <cfRule type="expression" dxfId="48" priority="54">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:BO46">
+    <cfRule type="expression" dxfId="47" priority="51">
+      <formula>AND($F45&lt;=L$6,ROUNDDOWN(($G45-$F45+1)*$I45,0)+$F45-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="52">
+      <formula>AND(NOT(ISBLANK($F45)),$F45&lt;=L$6,$G45&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:BO46">
+    <cfRule type="expression" dxfId="45" priority="50">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:BO48">
+    <cfRule type="expression" dxfId="44" priority="47">
+      <formula>AND($F47&lt;=L$6,ROUNDDOWN(($G47-$F47+1)*$I47,0)+$F47-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="48">
+      <formula>AND(NOT(ISBLANK($F47)),$F47&lt;=L$6,$G47&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:BO48">
+    <cfRule type="expression" dxfId="42" priority="46">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:BO50">
+    <cfRule type="expression" dxfId="41" priority="43">
+      <formula>AND($F49&lt;=L$6,ROUNDDOWN(($G49-$F49+1)*$I49,0)+$F49-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="44">
+      <formula>AND(NOT(ISBLANK($F49)),$F49&lt;=L$6,$G49&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:BO50">
+    <cfRule type="expression" dxfId="39" priority="42">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:BO52 L54:BO54">
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>AND($F51&lt;=L$6,ROUNDDOWN(($G51-$F51+1)*$I51,0)+$F51-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>AND(NOT(ISBLANK($F51)),$F51&lt;=L$6,$G51&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:BO52 L54:BO54">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53:BO53">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>AND($F53&lt;=L$6,ROUNDDOWN(($G53-$F53+1)*$I53,0)+$F53-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>AND(NOT(ISBLANK($F53)),$F53&lt;=L$6,$G53&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53:BO53">
+    <cfRule type="expression" dxfId="33" priority="32">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:BO55">
+    <cfRule type="expression" dxfId="32" priority="29">
+      <formula>AND($F55&lt;=L$6,ROUNDDOWN(($G55-$F55+1)*$I55,0)+$F55-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="30">
+      <formula>AND(NOT(ISBLANK($F55)),$F55&lt;=L$6,$G55&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:BO55">
+    <cfRule type="expression" dxfId="30" priority="28">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56:BO56">
+    <cfRule type="expression" dxfId="29" priority="25">
+      <formula>AND($F56&lt;=L$6,ROUNDDOWN(($G56-$F56+1)*$I56,0)+$F56-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="26">
+      <formula>AND(NOT(ISBLANK($F56)),$F56&lt;=L$6,$G56&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56:BO56">
+    <cfRule type="expression" dxfId="27" priority="24">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57:BO57">
+    <cfRule type="expression" dxfId="26" priority="20">
+      <formula>AND($F57&lt;=L$6,ROUNDDOWN(($G57-$F57+1)*$I57,0)+$F57-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="21">
+      <formula>AND(NOT(ISBLANK($F57)),$F57&lt;=L$6,$G57&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57:BO57">
+    <cfRule type="expression" dxfId="24" priority="19">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:BO58">
+    <cfRule type="expression" dxfId="23" priority="16">
+      <formula>AND($F58&lt;=L$6,ROUNDDOWN(($G58-$F58+1)*$I58,0)+$F58-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17">
+      <formula>AND(NOT(ISBLANK($F58)),$F58&lt;=L$6,$G58&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:BO58">
+    <cfRule type="expression" dxfId="21" priority="15">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59:BO59">
+    <cfRule type="expression" dxfId="20" priority="12">
+      <formula>AND($F59&lt;=L$6,ROUNDDOWN(($G59-$F59+1)*$I59,0)+$F59-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>AND(NOT(ISBLANK($F59)),$F59&lt;=L$6,$G59&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59:BO59">
+    <cfRule type="expression" dxfId="18" priority="11">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60:BO60">
+    <cfRule type="expression" dxfId="17" priority="8">
+      <formula>AND($F60&lt;=L$6,ROUNDDOWN(($G60-$F60+1)*$I60,0)+$F60-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="9">
+      <formula>AND(NOT(ISBLANK($F60)),$F60&lt;=L$6,$G60&gt;=L$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60:BO60">
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4CB4999D-7F32-4BD0-A21E-79D58F5E0B47}</x14:id>
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A58A75E-4698-465A-8593-F06B91A3A900}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND($E21&lt;=K$6,ROUNDDOWN(($F21-$E21+1)*$H21,0)+$E21-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND(NOT(ISBLANK($E21)),$E21&lt;=K$6,$F21&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="I53">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FE0A2372-87F7-425B-944F-6D9C2BCFEFD9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
+  <conditionalFormatting sqref="L53:BO53">
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>AND($F53&lt;=L$6,ROUNDDOWN(($G53-$F53+1)*$I53,0)+$F53-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>AND(NOT(ISBLANK($F53)),$F53&lt;=L$6,$G53&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L53:BO53">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="I4"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G13 H19" unlockedFormula="1"/>
+    <ignoredError sqref="H13 I19" unlockedFormula="1"/>
     <ignoredError sqref="A19" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="8238" r:id="rId4" name="Scroll Bar 46">
-              <controlPr defaultSize="0" print="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>27</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0A58A75E-4698-465A-8593-F06B91A3A900}">

--- a/management/Project Schedule.xlsx
+++ b/management/Project Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="13275" windowHeight="11250"/>
@@ -18,7 +18,7 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
   <si>
     <t>WBS</t>
   </si>
@@ -559,25 +559,10 @@
     <t>Operating System</t>
   </si>
   <si>
-    <t>Abdel Rahman , El Zeiny</t>
-  </si>
-  <si>
     <t xml:space="preserve">Raafat , Basma </t>
   </si>
   <si>
     <t>Raafat,Basma , Esraa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raafat , Christine </t>
-  </si>
-  <si>
-    <t>Raafat , El Zeiny</t>
-  </si>
-  <si>
-    <t>Khaled , Christine</t>
-  </si>
-  <si>
-    <t>Abdel Rahman , Khaled</t>
   </si>
   <si>
     <t>N/A</t>
@@ -676,18 +661,39 @@
     <t>Button 
 BugFixing</t>
   </si>
+  <si>
+    <t xml:space="preserve">Abdel Rahman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khaled </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raafat </t>
+  </si>
+  <si>
+    <t>Abdel Rahman</t>
+  </si>
+  <si>
+    <t>Raafat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
     <numFmt numFmtId="165" formatCode="ddd\ m/dd/yy"/>
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1575,6 +1581,19 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1584,6 +1603,10 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1591,23 +1614,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1657,7 +1663,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="152">
+  <dxfs count="101">
     <dxf>
       <border>
         <left style="thin">
@@ -2399,20 +2405,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2425,20 +2417,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2451,20 +2429,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2477,20 +2441,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2503,6 +2453,20 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2515,6 +2479,20 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2527,6 +2505,20 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2539,96 +2531,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -2649,344 +2551,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3077,6 +2641,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
@@ -3097,7 +2665,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3131,13 +2699,54 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8238" name="Scroll Bar 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8238"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3427,18 +3036,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BO60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -3454,7 +3063,7 @@
     <col min="68" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="30" customHeight="1">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
@@ -3465,29 +3074,29 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="J1" s="67"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
     </row>
-    <row r="2" spans="1:67" ht="18" customHeight="1">
+    <row r="2" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3497,7 +3106,7 @@
       <c r="G2" s="68"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:67" ht="14.25">
+    <row r="3" spans="1:67" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3525,17 +3134,17 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
     </row>
-    <row r="4" spans="1:67" ht="17.25" customHeight="1">
+    <row r="4" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="52"/>
-      <c r="D4" s="79">
+      <c r="D4" s="78">
         <v>43189</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="49"/>
       <c r="H4" s="52" t="s">
         <v>8</v>
@@ -3545,185 +3154,185 @@
       </c>
       <c r="J4" s="50"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="71" t="str">
+      <c r="L4" s="75" t="str">
         <f>"Week "&amp;(L6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="71" t="str">
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="75" t="str">
         <f>"Week "&amp;(S6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="71" t="str">
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="75" t="str">
         <f>"Week "&amp;(Z6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="71" t="str">
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="75" t="str">
         <f>"Week "&amp;(AG6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="71" t="str">
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="75" t="str">
         <f>"Week "&amp;(AN6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="71" t="str">
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="75" t="str">
         <f>"Week "&amp;(AU6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="71" t="str">
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="75" t="str">
         <f>"Week "&amp;(BB6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="72"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="73"/>
-      <c r="BI4" s="71" t="str">
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="75" t="str">
         <f>"Week "&amp;(BI6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="72"/>
-      <c r="BM4" s="72"/>
-      <c r="BN4" s="72"/>
-      <c r="BO4" s="73"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="77"/>
     </row>
-    <row r="5" spans="1:67" ht="17.25" customHeight="1">
+    <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="52"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="74">
+      <c r="L5" s="79">
         <f>L6</f>
         <v>43185</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="74">
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="79">
         <f>S6</f>
         <v>43192</v>
       </c>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="74">
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="79">
         <f>Z6</f>
         <v>43199</v>
       </c>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="74">
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="79">
         <f>AG6</f>
         <v>43206</v>
       </c>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="75"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="74">
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="81"/>
+      <c r="AN5" s="79">
         <f>AN6</f>
         <v>43213</v>
       </c>
-      <c r="AO5" s="75"/>
-      <c r="AP5" s="75"/>
-      <c r="AQ5" s="75"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="75"/>
-      <c r="AT5" s="76"/>
-      <c r="AU5" s="74">
+      <c r="AO5" s="80"/>
+      <c r="AP5" s="80"/>
+      <c r="AQ5" s="80"/>
+      <c r="AR5" s="80"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="79">
         <f>AU6</f>
         <v>43220</v>
       </c>
-      <c r="AV5" s="75"/>
-      <c r="AW5" s="75"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="74">
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="81"/>
+      <c r="BB5" s="79">
         <f>BB6</f>
         <v>43227</v>
       </c>
-      <c r="BC5" s="75"/>
-      <c r="BD5" s="75"/>
-      <c r="BE5" s="75"/>
-      <c r="BF5" s="75"/>
-      <c r="BG5" s="75"/>
-      <c r="BH5" s="76"/>
-      <c r="BI5" s="74">
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="79">
         <f>BI6</f>
         <v>43234</v>
       </c>
-      <c r="BJ5" s="75"/>
-      <c r="BK5" s="75"/>
-      <c r="BL5" s="75"/>
-      <c r="BM5" s="75"/>
-      <c r="BN5" s="75"/>
-      <c r="BO5" s="76"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="80"/>
+      <c r="BN5" s="80"/>
+      <c r="BO5" s="81"/>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3960,7 +3569,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="62" customFormat="1" ht="24.75" thickBot="1">
+    <row r="7" spans="1:67" s="62" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>0</v>
       </c>
@@ -4217,7 +3826,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="18" customFormat="1" ht="18">
+    <row r="8" spans="1:67" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -4297,7 +3906,7 @@
       <c r="BN8" s="45"/>
       <c r="BO8" s="45"/>
     </row>
-    <row r="9" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="9" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="str">
         <f t="shared" ref="A9:A13" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -4308,7 +3917,7 @@
       <c r="C9" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="71" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="65"/>
@@ -4387,7 +3996,7 @@
       <c r="BN9" s="46"/>
       <c r="BO9" s="46"/>
     </row>
-    <row r="10" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="10" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -4398,7 +4007,7 @@
       <c r="C10" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="71" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="65"/>
@@ -4477,7 +4086,7 @@
       <c r="BN10" s="46"/>
       <c r="BO10" s="46"/>
     </row>
-    <row r="11" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="11" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.2</v>
@@ -4488,7 +4097,7 @@
       <c r="C11" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="71" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="65"/>
@@ -4567,7 +4176,7 @@
       <c r="BN11" s="46"/>
       <c r="BO11" s="46"/>
     </row>
-    <row r="12" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="12" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.3</v>
@@ -4578,7 +4187,7 @@
       <c r="C12" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="71" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="65"/>
@@ -4657,7 +4266,7 @@
       <c r="BN12" s="46"/>
       <c r="BO12" s="46"/>
     </row>
-    <row r="13" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="13" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="str">
         <f t="shared" si="5"/>
         <v>1.2</v>
@@ -4666,9 +4275,9 @@
         <v>18</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="71" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="65"/>
@@ -4746,7 +4355,7 @@
       <c r="BN13" s="46"/>
       <c r="BO13" s="46"/>
     </row>
-    <row r="14" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="14" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
@@ -4755,10 +4364,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="80" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="42">
@@ -4835,7 +4444,7 @@
       <c r="BN14" s="46"/>
       <c r="BO14" s="46"/>
     </row>
-    <row r="15" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="15" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.2</v>
@@ -4846,7 +4455,7 @@
       <c r="C15" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="71" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="65"/>
@@ -4925,7 +4534,7 @@
       <c r="BN15" s="46"/>
       <c r="BO15" s="46"/>
     </row>
-    <row r="16" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="16" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.3</v>
@@ -4936,7 +4545,7 @@
       <c r="C16" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="71" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="65"/>
@@ -5015,7 +4624,7 @@
       <c r="BN16" s="46"/>
       <c r="BO16" s="46"/>
     </row>
-    <row r="17" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="17" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.4</v>
@@ -5024,9 +4633,9 @@
         <v>20</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="71" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="65"/>
@@ -5104,7 +4713,7 @@
       <c r="BN17" s="46"/>
       <c r="BO17" s="46"/>
     </row>
-    <row r="18" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="18" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.5</v>
@@ -5115,7 +4724,7 @@
       <c r="C18" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="71" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="65"/>
@@ -5194,7 +4803,7 @@
       <c r="BN18" s="46"/>
       <c r="BO18" s="46"/>
     </row>
-    <row r="19" spans="1:67" s="18" customFormat="1" ht="18">
+    <row r="19" spans="1:67" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -5203,7 +4812,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="81"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="19"/>
       <c r="F19" s="42"/>
       <c r="G19" s="44"/>
@@ -5268,7 +4877,7 @@
       <c r="BN19" s="47"/>
       <c r="BO19" s="47"/>
     </row>
-    <row r="20" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="20" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -5277,9 +4886,9 @@
         <v>26</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="71" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="65"/>
@@ -5357,7 +4966,7 @@
       <c r="BN20" s="46"/>
       <c r="BO20" s="46"/>
     </row>
-    <row r="21" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="21" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -5366,9 +4975,9 @@
         <v>27</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="71" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="65"/>
@@ -5446,7 +5055,7 @@
       <c r="BN21" s="46"/>
       <c r="BO21" s="46"/>
     </row>
-    <row r="22" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="22" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
@@ -5455,9 +5064,9 @@
         <v>25</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="71" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="65"/>
@@ -5534,7 +5143,7 @@
       <c r="BN22" s="46"/>
       <c r="BO22" s="46"/>
     </row>
-    <row r="23" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="23" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
@@ -5545,7 +5154,7 @@
       <c r="C23" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="71" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="65"/>
@@ -5622,7 +5231,7 @@
       <c r="BN23" s="46"/>
       <c r="BO23" s="46"/>
     </row>
-    <row r="24" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="24" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
@@ -5633,7 +5242,7 @@
       <c r="C24" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="71" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="65"/>
@@ -5711,15 +5320,15 @@
       <c r="BN24" s="46"/>
       <c r="BO24" s="46"/>
     </row>
-    <row r="25" spans="1:67" s="18" customFormat="1" ht="18">
+    <row r="25" spans="1:67" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>3</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="81"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="19"/>
       <c r="F25" s="42"/>
       <c r="G25" s="44"/>
@@ -5784,7 +5393,7 @@
       <c r="BN25" s="47"/>
       <c r="BO25" s="47"/>
     </row>
-    <row r="26" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="26" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>3.1</v>
       </c>
@@ -5792,10 +5401,10 @@
         <v>45</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="80" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>80</v>
       </c>
       <c r="E26" s="65"/>
       <c r="F26" s="42">
@@ -5808,7 +5417,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="27">
         <v>1</v>
@@ -5871,7 +5480,7 @@
       <c r="BN26" s="46"/>
       <c r="BO26" s="46"/>
     </row>
-    <row r="27" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="27" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>3.2</v>
       </c>
@@ -5879,10 +5488,10 @@
         <v>44</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>84</v>
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="42">
@@ -5895,7 +5504,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="27">
         <v>1</v>
@@ -5958,7 +5567,7 @@
       <c r="BN27" s="46"/>
       <c r="BO27" s="46"/>
     </row>
-    <row r="28" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="28" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>3.3</v>
       </c>
@@ -5966,10 +5575,10 @@
         <v>46</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="80" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>42</v>
       </c>
       <c r="E28" s="65"/>
       <c r="F28" s="42">
@@ -5982,7 +5591,7 @@
         <v>7</v>
       </c>
       <c r="I28" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="27">
         <v>5</v>
@@ -6045,7 +5654,7 @@
       <c r="BN28" s="46"/>
       <c r="BO28" s="46"/>
     </row>
-    <row r="29" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="29" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>3.4</v>
       </c>
@@ -6053,10 +5662,10 @@
         <v>48</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="80" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>82</v>
       </c>
       <c r="E29" s="65"/>
       <c r="F29" s="42">
@@ -6069,7 +5678,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="27">
         <v>4</v>
@@ -6132,7 +5741,7 @@
       <c r="BN29" s="46"/>
       <c r="BO29" s="46"/>
     </row>
-    <row r="30" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="30" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>3.5</v>
       </c>
@@ -6140,10 +5749,10 @@
         <v>47</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="80" t="s">
-        <v>56</v>
+        <v>85</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>34</v>
       </c>
       <c r="E30" s="65"/>
       <c r="F30" s="42">
@@ -6156,7 +5765,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="26">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J30" s="27">
         <v>4</v>
@@ -6219,15 +5828,15 @@
       <c r="BN30" s="46"/>
       <c r="BO30" s="46"/>
     </row>
-    <row r="31" spans="1:67" s="18" customFormat="1" ht="18">
+    <row r="31" spans="1:67" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>4</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C31" s="17"/>
-      <c r="D31" s="81"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="19"/>
       <c r="F31" s="42"/>
       <c r="G31" s="44"/>
@@ -6292,16 +5901,16 @@
       <c r="BN31" s="47"/>
       <c r="BO31" s="47"/>
     </row>
-    <row r="32" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="32" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>4.0999999999999996</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C32" s="64"/>
-      <c r="D32" s="80" t="s">
-        <v>56</v>
+      <c r="D32" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E32" s="65"/>
       <c r="F32" s="42">
@@ -6317,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K32" s="40"/>
       <c r="L32" s="46"/>
@@ -6377,16 +5986,16 @@
       <c r="BN32" s="46"/>
       <c r="BO32" s="46"/>
     </row>
-    <row r="33" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="33" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <v>4.2</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C33" s="64"/>
-      <c r="D33" s="80" t="s">
-        <v>56</v>
+      <c r="D33" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E33" s="65"/>
       <c r="F33" s="42">
@@ -6402,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K33" s="40"/>
       <c r="L33" s="46"/>
@@ -6462,16 +6071,16 @@
       <c r="BN33" s="46"/>
       <c r="BO33" s="46"/>
     </row>
-    <row r="34" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="34" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <v>4.3</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C34" s="64"/>
-      <c r="D34" s="80" t="s">
-        <v>56</v>
+      <c r="D34" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E34" s="65"/>
       <c r="F34" s="42">
@@ -6487,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K34" s="40"/>
       <c r="L34" s="46"/>
@@ -6547,16 +6156,16 @@
       <c r="BN34" s="46"/>
       <c r="BO34" s="46"/>
     </row>
-    <row r="35" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="35" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <v>4.4000000000000004</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C35" s="64"/>
-      <c r="D35" s="80" t="s">
-        <v>56</v>
+      <c r="D35" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E35" s="65"/>
       <c r="F35" s="42">
@@ -6572,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K35" s="40"/>
       <c r="L35" s="46"/>
@@ -6632,16 +6241,16 @@
       <c r="BN35" s="46"/>
       <c r="BO35" s="46"/>
     </row>
-    <row r="36" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="36" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <v>4.5</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C36" s="64"/>
-      <c r="D36" s="80" t="s">
-        <v>56</v>
+      <c r="D36" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E36" s="65"/>
       <c r="F36" s="42">
@@ -6657,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K36" s="40"/>
       <c r="L36" s="46"/>
@@ -6717,15 +6326,15 @@
       <c r="BN36" s="46"/>
       <c r="BO36" s="46"/>
     </row>
-    <row r="37" spans="1:67" s="18" customFormat="1" ht="18">
+    <row r="37" spans="1:67" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>5</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="81"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="19"/>
       <c r="F37" s="42"/>
       <c r="G37" s="44"/>
@@ -6790,16 +6399,16 @@
       <c r="BN37" s="47"/>
       <c r="BO37" s="47"/>
     </row>
-    <row r="38" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="38" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <v>5.0999999999999996</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C38" s="64"/>
-      <c r="D38" s="80" t="s">
-        <v>56</v>
+      <c r="D38" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E38" s="65"/>
       <c r="F38" s="42">
@@ -6815,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K38" s="40"/>
       <c r="L38" s="46"/>
@@ -6875,16 +6484,16 @@
       <c r="BN38" s="46"/>
       <c r="BO38" s="46"/>
     </row>
-    <row r="39" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="39" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
         <v>5.2</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C39" s="64"/>
-      <c r="D39" s="80" t="s">
-        <v>56</v>
+      <c r="D39" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E39" s="65"/>
       <c r="F39" s="42">
@@ -6900,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K39" s="40"/>
       <c r="L39" s="46"/>
@@ -6960,16 +6569,16 @@
       <c r="BN39" s="46"/>
       <c r="BO39" s="46"/>
     </row>
-    <row r="40" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="40" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
         <v>5.3</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C40" s="64"/>
-      <c r="D40" s="80" t="s">
-        <v>56</v>
+      <c r="D40" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E40" s="65"/>
       <c r="F40" s="42">
@@ -6985,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K40" s="40"/>
       <c r="L40" s="46"/>
@@ -7045,16 +6654,16 @@
       <c r="BN40" s="46"/>
       <c r="BO40" s="46"/>
     </row>
-    <row r="41" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="41" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
         <v>5.4</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C41" s="64"/>
-      <c r="D41" s="80" t="s">
-        <v>56</v>
+      <c r="D41" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E41" s="65"/>
       <c r="F41" s="42">
@@ -7070,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K41" s="40"/>
       <c r="L41" s="46"/>
@@ -7130,16 +6739,16 @@
       <c r="BN41" s="46"/>
       <c r="BO41" s="46"/>
     </row>
-    <row r="42" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="42" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <v>5.5</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C42" s="64"/>
-      <c r="D42" s="80" t="s">
-        <v>56</v>
+      <c r="D42" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E42" s="65"/>
       <c r="F42" s="42">
@@ -7155,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K42" s="40"/>
       <c r="L42" s="46"/>
@@ -7215,16 +6824,16 @@
       <c r="BN42" s="46"/>
       <c r="BO42" s="46"/>
     </row>
-    <row r="43" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="43" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>5.6</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C43" s="64"/>
-      <c r="D43" s="80" t="s">
-        <v>56</v>
+      <c r="D43" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E43" s="65"/>
       <c r="F43" s="42">
@@ -7240,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K43" s="40"/>
       <c r="L43" s="46"/>
@@ -7300,16 +6909,16 @@
       <c r="BN43" s="46"/>
       <c r="BO43" s="46"/>
     </row>
-    <row r="44" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="44" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <v>5.7</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C44" s="64"/>
-      <c r="D44" s="80" t="s">
-        <v>56</v>
+      <c r="D44" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E44" s="65"/>
       <c r="F44" s="42">
@@ -7325,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K44" s="40"/>
       <c r="L44" s="46"/>
@@ -7385,16 +6994,16 @@
       <c r="BN44" s="46"/>
       <c r="BO44" s="46"/>
     </row>
-    <row r="45" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="45" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
         <v>5.8</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C45" s="64"/>
-      <c r="D45" s="80" t="s">
-        <v>56</v>
+      <c r="D45" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E45" s="65"/>
       <c r="F45" s="42">
@@ -7410,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K45" s="40"/>
       <c r="L45" s="46"/>
@@ -7470,16 +7079,16 @@
       <c r="BN45" s="46"/>
       <c r="BO45" s="46"/>
     </row>
-    <row r="46" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="46" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="23">
         <v>5.9</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C46" s="64"/>
-      <c r="D46" s="80" t="s">
-        <v>56</v>
+      <c r="D46" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E46" s="65"/>
       <c r="F46" s="42">
@@ -7495,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K46" s="40"/>
       <c r="L46" s="46"/>
@@ -7555,16 +7164,16 @@
       <c r="BN46" s="46"/>
       <c r="BO46" s="46"/>
     </row>
-    <row r="47" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="47" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A47" s="23">
         <v>5.0999999999999996</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C47" s="64"/>
-      <c r="D47" s="80" t="s">
-        <v>56</v>
+      <c r="D47" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E47" s="65"/>
       <c r="F47" s="42">
@@ -7580,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K47" s="40"/>
       <c r="L47" s="46"/>
@@ -7640,16 +7249,16 @@
       <c r="BN47" s="46"/>
       <c r="BO47" s="46"/>
     </row>
-    <row r="48" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="48" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A48" s="23">
         <v>5.1100000000000003</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C48" s="64"/>
-      <c r="D48" s="80" t="s">
-        <v>56</v>
+      <c r="D48" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E48" s="65"/>
       <c r="F48" s="42">
@@ -7665,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K48" s="40"/>
       <c r="L48" s="46"/>
@@ -7725,16 +7334,16 @@
       <c r="BN48" s="46"/>
       <c r="BO48" s="46"/>
     </row>
-    <row r="49" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="49" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
         <v>5.12</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C49" s="64"/>
-      <c r="D49" s="80" t="s">
-        <v>56</v>
+      <c r="D49" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E49" s="65"/>
       <c r="F49" s="42">
@@ -7750,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K49" s="40"/>
       <c r="L49" s="46"/>
@@ -7810,16 +7419,16 @@
       <c r="BN49" s="46"/>
       <c r="BO49" s="46"/>
     </row>
-    <row r="50" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="50" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="23">
         <v>5.13</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C50" s="64"/>
-      <c r="D50" s="80" t="s">
-        <v>56</v>
+      <c r="D50" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E50" s="65"/>
       <c r="F50" s="42">
@@ -7835,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K50" s="40"/>
       <c r="L50" s="46"/>
@@ -7895,15 +7504,15 @@
       <c r="BN50" s="46"/>
       <c r="BO50" s="46"/>
     </row>
-    <row r="51" spans="1:67" s="18" customFormat="1" ht="18">
+    <row r="51" spans="1:67" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>6</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C51" s="17"/>
-      <c r="D51" s="81"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="19"/>
       <c r="F51" s="42"/>
       <c r="G51" s="44"/>
@@ -7968,16 +7577,16 @@
       <c r="BN51" s="47"/>
       <c r="BO51" s="47"/>
     </row>
-    <row r="52" spans="1:67" s="24" customFormat="1" ht="24">
+    <row r="52" spans="1:67" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A52" s="23">
         <v>6.1</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C52" s="64"/>
-      <c r="D52" s="80" t="s">
-        <v>56</v>
+      <c r="D52" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E52" s="65"/>
       <c r="F52" s="42">
@@ -7993,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K52" s="40"/>
       <c r="L52" s="46"/>
@@ -8053,16 +7662,16 @@
       <c r="BN52" s="46"/>
       <c r="BO52" s="46"/>
     </row>
-    <row r="53" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="53" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="23">
         <v>6.2</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C53" s="64"/>
-      <c r="D53" s="80" t="s">
-        <v>56</v>
+      <c r="D53" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E53" s="65"/>
       <c r="F53" s="42">
@@ -8078,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K53" s="40"/>
       <c r="L53" s="46"/>
@@ -8138,7 +7747,7 @@
       <c r="BN53" s="46"/>
       <c r="BO53" s="46"/>
     </row>
-    <row r="54" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="54" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="B54" s="64"/>
       <c r="C54" s="64"/>
@@ -8206,7 +7815,7 @@
       <c r="BN54" s="46"/>
       <c r="BO54" s="46"/>
     </row>
-    <row r="55" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="55" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="B55" s="64"/>
       <c r="C55" s="64"/>
@@ -8274,7 +7883,7 @@
       <c r="BN55" s="46"/>
       <c r="BO55" s="46"/>
     </row>
-    <row r="56" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="56" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="B56" s="64"/>
       <c r="C56" s="64"/>
@@ -8342,7 +7951,7 @@
       <c r="BN56" s="46"/>
       <c r="BO56" s="46"/>
     </row>
-    <row r="57" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="57" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
@@ -8410,7 +8019,7 @@
       <c r="BN57" s="46"/>
       <c r="BO57" s="46"/>
     </row>
-    <row r="58" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="58" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
       <c r="C58" s="64"/>
       <c r="E58" s="65"/>
@@ -8477,7 +8086,7 @@
       <c r="BN58" s="46"/>
       <c r="BO58" s="46"/>
     </row>
-    <row r="59" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="59" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
       <c r="C59" s="64"/>
       <c r="E59" s="65"/>
@@ -8544,7 +8153,7 @@
       <c r="BN59" s="46"/>
       <c r="BO59" s="46"/>
     </row>
-    <row r="60" spans="1:67" s="24" customFormat="1" ht="18">
+    <row r="60" spans="1:67" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
       <c r="C60" s="64"/>
       <c r="E60" s="65"/>
@@ -8614,15 +8223,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="L1:AF1"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="Z5:AF5"/>
     <mergeCell ref="AG4:AM4"/>
     <mergeCell ref="AG5:AM5"/>
     <mergeCell ref="BI4:BO4"/>
@@ -8633,629 +8233,680 @@
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="BB4:BH4"/>
     <mergeCell ref="BB5:BH5"/>
+    <mergeCell ref="L1:AF1"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="Z5:AF5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I8:I9 I13 I19:I20 I22:I23 I25:I26 I28 I31:I32 I34 I37:I38 I40 I51:I52 I54 I58 I45:I46">
-    <cfRule type="dataBar" priority="151">
+  <conditionalFormatting sqref="I8:I9 I13 I19:I20 I22:I23 I25 I31:I32 I34 I37:I38 I40 I51:I52 I54 I58 I45:I46">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0A58A75E-4698-465A-8593-F06B91A3A900}</x14:id>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5B0934F4-049F-459A-8CFB-4EC552EFCB34}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:BO7">
-    <cfRule type="expression" dxfId="112" priority="194">
+    <cfRule type="expression" dxfId="100" priority="197">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:BO9 L13:BO17 L19:BO20 L22:BO23">
-    <cfRule type="expression" dxfId="111" priority="197">
+    <cfRule type="expression" dxfId="99" priority="200">
       <formula>AND($F8&lt;=L$6,ROUNDDOWN(($G8-$F8+1)*$I8,0)+$F8-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="198">
+    <cfRule type="expression" dxfId="98" priority="201">
       <formula>AND(NOT(ISBLANK($F8)),$F8&lt;=L$6,$G8&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:BO9 L13:BO13 L19:BO20 L22:BO23">
-    <cfRule type="expression" dxfId="109" priority="157">
+    <cfRule type="expression" dxfId="97" priority="160">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="dataBar" priority="146">
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{DEFF3913-EE89-4EA4-9115-9D21A0823048}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:BO10">
-    <cfRule type="expression" dxfId="108" priority="148">
+    <cfRule type="expression" dxfId="96" priority="151">
       <formula>AND($F10&lt;=L$6,ROUNDDOWN(($G10-$F10+1)*$I10,0)+$F10-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="149">
+    <cfRule type="expression" dxfId="95" priority="152">
       <formula>AND(NOT(ISBLANK($F10)),$F10&lt;=L$6,$G10&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:BO10">
-    <cfRule type="expression" dxfId="106" priority="147">
+    <cfRule type="expression" dxfId="94" priority="150">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="dataBar" priority="142">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{815CD2AB-2E6F-403D-80E7-061609C74EF4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:BO11">
-    <cfRule type="expression" dxfId="105" priority="144">
+    <cfRule type="expression" dxfId="93" priority="147">
       <formula>AND($F11&lt;=L$6,ROUNDDOWN(($G11-$F11+1)*$I11,0)+$F11-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="145">
+    <cfRule type="expression" dxfId="92" priority="148">
       <formula>AND(NOT(ISBLANK($F11)),$F11&lt;=L$6,$G11&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:BO11">
-    <cfRule type="expression" dxfId="103" priority="143">
+    <cfRule type="expression" dxfId="91" priority="146">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="dataBar" priority="138">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{4DE783D9-BF2C-4E8C-99D9-D83F49490783}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:BO12">
-    <cfRule type="expression" dxfId="102" priority="140">
+    <cfRule type="expression" dxfId="90" priority="143">
       <formula>AND($F12&lt;=L$6,ROUNDDOWN(($G12-$F12+1)*$I12,0)+$F12-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="141">
+    <cfRule type="expression" dxfId="89" priority="144">
       <formula>AND(NOT(ISBLANK($F12)),$F12&lt;=L$6,$G12&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:BO12">
-    <cfRule type="expression" dxfId="100" priority="139">
+    <cfRule type="expression" dxfId="88" priority="142">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FE3BFC5D-DD1E-4E5C-99FD-C5B93745E00E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:BO15">
-    <cfRule type="expression" dxfId="99" priority="135">
+    <cfRule type="expression" dxfId="87" priority="138">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="dataBar" priority="130">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7EDD0AA6-9198-408E-AC95-B27467D259D6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:BO16">
-    <cfRule type="expression" dxfId="98" priority="131">
+    <cfRule type="expression" dxfId="86" priority="134">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="dataBar" priority="126">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F90E373A-CFB8-4601-A0BD-35FE2489FCD0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:BO17">
-    <cfRule type="expression" dxfId="97" priority="127">
+    <cfRule type="expression" dxfId="85" priority="130">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="dataBar" priority="122">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{EF67816D-6580-40EA-AE8D-F4905457C07F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:BO14">
-    <cfRule type="expression" dxfId="96" priority="123">
+    <cfRule type="expression" dxfId="84" priority="126">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:BO18">
-    <cfRule type="expression" dxfId="95" priority="120">
+    <cfRule type="expression" dxfId="83" priority="123">
       <formula>AND($F18&lt;=L$6,ROUNDDOWN(($G18-$F18+1)*$I18,0)+$F18-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="121">
+    <cfRule type="expression" dxfId="82" priority="124">
       <formula>AND(NOT(ISBLANK($F18)),$F18&lt;=L$6,$G18&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="dataBar" priority="118">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9333D35F-E0E5-49C1-A482-B295DBAEAF5A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:BO18">
-    <cfRule type="expression" dxfId="93" priority="119">
+    <cfRule type="expression" dxfId="81" priority="122">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21 I27 I33 I39 I53 I57 I43:I44">
-    <cfRule type="dataBar" priority="114">
+  <conditionalFormatting sqref="I33 I21 I39 I53 I57 I43:I44">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{4CB4999D-7F32-4BD0-A21E-79D58F5E0B47}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:BO21">
-    <cfRule type="expression" dxfId="92" priority="116">
+    <cfRule type="expression" dxfId="80" priority="119">
       <formula>AND($F21&lt;=L$6,ROUNDDOWN(($G21-$F21+1)*$I21,0)+$F21-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="117">
+    <cfRule type="expression" dxfId="79" priority="120">
       <formula>AND(NOT(ISBLANK($F21)),$F21&lt;=L$6,$G21&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:BO21">
-    <cfRule type="expression" dxfId="90" priority="115">
+    <cfRule type="expression" dxfId="78" priority="118">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I30 I24 I35:I36 I32 I38 I41:I42 I52 I55:I56 I59:I60 I47:I50">
-    <cfRule type="dataBar" priority="110">
+  <conditionalFormatting sqref="I35:I36 I24 I32 I38 I41:I42 I52 I55:I56 I59:I60 I47:I50 I29:I30">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FE0A2372-87F7-425B-944F-6D9C2BCFEFD9}</x14:id>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E6F040FB-8FF3-46BF-AFB8-E322110300CC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:BO24">
-    <cfRule type="expression" dxfId="89" priority="112">
+    <cfRule type="expression" dxfId="77" priority="115">
       <formula>AND($F24&lt;=L$6,ROUNDDOWN(($G24-$F24+1)*$I24,0)+$F24-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="113">
+    <cfRule type="expression" dxfId="76" priority="116">
       <formula>AND(NOT(ISBLANK($F24)),$F24&lt;=L$6,$G24&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:BO24">
-    <cfRule type="expression" dxfId="87" priority="111">
+    <cfRule type="expression" dxfId="75" priority="114">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:BO26 L28:BO28">
-    <cfRule type="expression" dxfId="86" priority="107">
+    <cfRule type="expression" dxfId="74" priority="110">
       <formula>AND($F25&lt;=L$6,ROUNDDOWN(($G25-$F25+1)*$I25,0)+$F25-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="108">
+    <cfRule type="expression" dxfId="73" priority="111">
       <formula>AND(NOT(ISBLANK($F25)),$F25&lt;=L$6,$G25&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:BO26 L28:BO28">
-    <cfRule type="expression" dxfId="84" priority="106">
+    <cfRule type="expression" dxfId="72" priority="109">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:BO27">
-    <cfRule type="expression" dxfId="83" priority="103">
+    <cfRule type="expression" dxfId="71" priority="106">
       <formula>AND($F27&lt;=L$6,ROUNDDOWN(($G27-$F27+1)*$I27,0)+$F27-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="104">
+    <cfRule type="expression" dxfId="70" priority="107">
       <formula>AND(NOT(ISBLANK($F27)),$F27&lt;=L$6,$G27&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:BO27">
-    <cfRule type="expression" dxfId="81" priority="102">
+    <cfRule type="expression" dxfId="69" priority="105">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:BO29">
-    <cfRule type="expression" dxfId="80" priority="99">
+    <cfRule type="expression" dxfId="68" priority="102">
       <formula>AND($F29&lt;=L$6,ROUNDDOWN(($G29-$F29+1)*$I29,0)+$F29-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="100">
+    <cfRule type="expression" dxfId="67" priority="103">
       <formula>AND(NOT(ISBLANK($F29)),$F29&lt;=L$6,$G29&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:BO29">
-    <cfRule type="expression" dxfId="78" priority="98">
+    <cfRule type="expression" dxfId="66" priority="101">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:BO30">
-    <cfRule type="expression" dxfId="77" priority="95">
+    <cfRule type="expression" dxfId="65" priority="98">
       <formula>AND($F30&lt;=L$6,ROUNDDOWN(($G30-$F30+1)*$I30,0)+$F30-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="96">
+    <cfRule type="expression" dxfId="64" priority="99">
       <formula>AND(NOT(ISBLANK($F30)),$F30&lt;=L$6,$G30&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:BO30">
-    <cfRule type="expression" dxfId="75" priority="94">
+    <cfRule type="expression" dxfId="63" priority="97">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:BO32 L34:BO34">
-    <cfRule type="expression" dxfId="74" priority="91">
+    <cfRule type="expression" dxfId="62" priority="94">
       <formula>AND($F31&lt;=L$6,ROUNDDOWN(($G31-$F31+1)*$I31,0)+$F31-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="92">
+    <cfRule type="expression" dxfId="61" priority="95">
       <formula>AND(NOT(ISBLANK($F31)),$F31&lt;=L$6,$G31&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:BO32 L34:BO34">
-    <cfRule type="expression" dxfId="72" priority="90">
+    <cfRule type="expression" dxfId="60" priority="93">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:BO33">
-    <cfRule type="expression" dxfId="71" priority="87">
+    <cfRule type="expression" dxfId="59" priority="90">
       <formula>AND($F33&lt;=L$6,ROUNDDOWN(($G33-$F33+1)*$I33,0)+$F33-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="88">
+    <cfRule type="expression" dxfId="58" priority="91">
       <formula>AND(NOT(ISBLANK($F33)),$F33&lt;=L$6,$G33&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:BO33">
-    <cfRule type="expression" dxfId="69" priority="86">
+    <cfRule type="expression" dxfId="57" priority="89">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:BO35">
-    <cfRule type="expression" dxfId="68" priority="83">
+    <cfRule type="expression" dxfId="56" priority="86">
       <formula>AND($F35&lt;=L$6,ROUNDDOWN(($G35-$F35+1)*$I35,0)+$F35-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="84">
+    <cfRule type="expression" dxfId="55" priority="87">
       <formula>AND(NOT(ISBLANK($F35)),$F35&lt;=L$6,$G35&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:BO35">
-    <cfRule type="expression" dxfId="66" priority="82">
+    <cfRule type="expression" dxfId="54" priority="85">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36:BO36">
-    <cfRule type="expression" dxfId="65" priority="79">
+    <cfRule type="expression" dxfId="53" priority="82">
       <formula>AND($F36&lt;=L$6,ROUNDDOWN(($G36-$F36+1)*$I36,0)+$F36-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="80">
+    <cfRule type="expression" dxfId="52" priority="83">
       <formula>AND(NOT(ISBLANK($F36)),$F36&lt;=L$6,$G36&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36:BO36">
-    <cfRule type="expression" dxfId="63" priority="78">
+    <cfRule type="expression" dxfId="51" priority="81">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:BO38 L40:BO40">
-    <cfRule type="expression" dxfId="62" priority="73">
+    <cfRule type="expression" dxfId="50" priority="76">
       <formula>AND($F37&lt;=L$6,ROUNDDOWN(($G37-$F37+1)*$I37,0)+$F37-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="74">
+    <cfRule type="expression" dxfId="49" priority="77">
       <formula>AND(NOT(ISBLANK($F37)),$F37&lt;=L$6,$G37&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:BO38 L40:BO40">
-    <cfRule type="expression" dxfId="60" priority="72">
+    <cfRule type="expression" dxfId="48" priority="75">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:BO39">
-    <cfRule type="expression" dxfId="59" priority="68">
+    <cfRule type="expression" dxfId="47" priority="71">
       <formula>AND($F39&lt;=L$6,ROUNDDOWN(($G39-$F39+1)*$I39,0)+$F39-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="69">
+    <cfRule type="expression" dxfId="46" priority="72">
       <formula>AND(NOT(ISBLANK($F39)),$F39&lt;=L$6,$G39&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:BO39">
-    <cfRule type="expression" dxfId="57" priority="67">
+    <cfRule type="expression" dxfId="45" priority="70">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:BO41">
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="44" priority="67">
       <formula>AND($F41&lt;=L$6,ROUNDDOWN(($G41-$F41+1)*$I41,0)+$F41-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="65">
+    <cfRule type="expression" dxfId="43" priority="68">
       <formula>AND(NOT(ISBLANK($F41)),$F41&lt;=L$6,$G41&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:BO41">
-    <cfRule type="expression" dxfId="54" priority="63">
+    <cfRule type="expression" dxfId="42" priority="66">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42:BO42">
-    <cfRule type="expression" dxfId="53" priority="60">
+    <cfRule type="expression" dxfId="41" priority="63">
       <formula>AND($F42&lt;=L$6,ROUNDDOWN(($G42-$F42+1)*$I42,0)+$F42-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="61">
+    <cfRule type="expression" dxfId="40" priority="64">
       <formula>AND(NOT(ISBLANK($F42)),$F42&lt;=L$6,$G42&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42:BO42">
-    <cfRule type="expression" dxfId="51" priority="59">
+    <cfRule type="expression" dxfId="39" priority="62">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:BO44">
-    <cfRule type="expression" dxfId="50" priority="55">
+    <cfRule type="expression" dxfId="38" priority="58">
       <formula>AND($F43&lt;=L$6,ROUNDDOWN(($G43-$F43+1)*$I43,0)+$F43-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="56">
+    <cfRule type="expression" dxfId="37" priority="59">
       <formula>AND(NOT(ISBLANK($F43)),$F43&lt;=L$6,$G43&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:BO44">
-    <cfRule type="expression" dxfId="48" priority="54">
+    <cfRule type="expression" dxfId="36" priority="57">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:BO46">
-    <cfRule type="expression" dxfId="47" priority="51">
+    <cfRule type="expression" dxfId="35" priority="54">
       <formula>AND($F45&lt;=L$6,ROUNDDOWN(($G45-$F45+1)*$I45,0)+$F45-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="52">
+    <cfRule type="expression" dxfId="34" priority="55">
       <formula>AND(NOT(ISBLANK($F45)),$F45&lt;=L$6,$G45&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:BO46">
-    <cfRule type="expression" dxfId="45" priority="50">
+    <cfRule type="expression" dxfId="33" priority="53">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:BO48">
-    <cfRule type="expression" dxfId="44" priority="47">
+    <cfRule type="expression" dxfId="32" priority="50">
       <formula>AND($F47&lt;=L$6,ROUNDDOWN(($G47-$F47+1)*$I47,0)+$F47-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="48">
+    <cfRule type="expression" dxfId="31" priority="51">
       <formula>AND(NOT(ISBLANK($F47)),$F47&lt;=L$6,$G47&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:BO48">
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="30" priority="49">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:BO50">
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="29" priority="46">
       <formula>AND($F49&lt;=L$6,ROUNDDOWN(($G49-$F49+1)*$I49,0)+$F49-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="44">
+    <cfRule type="expression" dxfId="28" priority="47">
       <formula>AND(NOT(ISBLANK($F49)),$F49&lt;=L$6,$G49&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:BO50">
-    <cfRule type="expression" dxfId="39" priority="42">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:BO52 L54:BO54">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="26" priority="41">
       <formula>AND($F51&lt;=L$6,ROUNDDOWN(($G51-$F51+1)*$I51,0)+$F51-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="25" priority="42">
       <formula>AND(NOT(ISBLANK($F51)),$F51&lt;=L$6,$G51&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:BO52 L54:BO54">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:BO53">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="23" priority="36">
       <formula>AND($F53&lt;=L$6,ROUNDDOWN(($G53-$F53+1)*$I53,0)+$F53-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="22" priority="37">
       <formula>AND(NOT(ISBLANK($F53)),$F53&lt;=L$6,$G53&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:BO53">
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:BO55">
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>AND($F55&lt;=L$6,ROUNDDOWN(($G55-$F55+1)*$I55,0)+$F55-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="19" priority="33">
       <formula>AND(NOT(ISBLANK($F55)),$F55&lt;=L$6,$G55&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:BO55">
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="18" priority="31">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:BO56">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>AND($F56&lt;=L$6,ROUNDDOWN(($G56-$F56+1)*$I56,0)+$F56-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>AND(NOT(ISBLANK($F56)),$F56&lt;=L$6,$G56&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:BO56">
-    <cfRule type="expression" dxfId="27" priority="24">
+    <cfRule type="expression" dxfId="15" priority="27">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:BO57">
-    <cfRule type="expression" dxfId="26" priority="20">
+    <cfRule type="expression" dxfId="14" priority="23">
       <formula>AND($F57&lt;=L$6,ROUNDDOWN(($G57-$F57+1)*$I57,0)+$F57-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>AND(NOT(ISBLANK($F57)),$F57&lt;=L$6,$G57&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:BO57">
-    <cfRule type="expression" dxfId="24" priority="19">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58:BO58">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>AND($F58&lt;=L$6,ROUNDDOWN(($G58-$F58+1)*$I58,0)+$F58-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>AND(NOT(ISBLANK($F58)),$F58&lt;=L$6,$G58&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58:BO58">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:BO59">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>AND($F59&lt;=L$6,ROUNDDOWN(($G59-$F59+1)*$I59,0)+$F59-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>AND(NOT(ISBLANK($F59)),$F59&lt;=L$6,$G59&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:BO59">
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:BO60">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>AND($F60&lt;=L$6,ROUNDDOWN(($G60-$F60+1)*$I60,0)+$F60-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>AND(NOT(ISBLANK($F60)),$F60&lt;=L$6,$G60&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:BO60">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>L$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{0A58A75E-4698-465A-8593-F06B91A3A900}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </dataBar>
-      <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <ext uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FE0A2372-87F7-425B-944F-6D9C2BCFEFD9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:BO53">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND($F53&lt;=L$6,ROUNDDOWN(($G53-$F53+1)*$I53,0)+$F53-1&gt;=L$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND(NOT(ISBLANK($F53)),$F53&lt;=L$6,$G53&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:BO53">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>L$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{686FCF22-AD95-49A7-A5F3-A09258557155}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C60C0BB9-0086-44D9-95A7-243C468A714A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{281B9BEB-E466-41FC-8DCC-90F674CE9544}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -9270,11 +8921,39 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="8238" r:id="rId4" name="Scroll Bar 46">
+              <controlPr defaultSize="0" print="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>28</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0A58A75E-4698-465A-8593-F06B91A3A900}">
+          <x14:cfRule type="dataBar" id="{5B0934F4-049F-459A-8CFB-4EC552EFCB34}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9286,7 +8965,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H13 H19:H20 H22:H23</xm:sqref>
+          <xm:sqref>I8:I9 I13 I19:I20 I22:I23 I25 I31:I32 I34 I37:I38 I40 I51:I52 I54 I58 I45:I46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEFF3913-EE89-4EA4-9115-9D21A0823048}">
@@ -9301,7 +8980,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10</xm:sqref>
+          <xm:sqref>I10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{815CD2AB-2E6F-403D-80E7-061609C74EF4}">
@@ -9316,7 +8995,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
+          <xm:sqref>I11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4DE783D9-BF2C-4E8C-99D9-D83F49490783}">
@@ -9331,7 +9010,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H12</xm:sqref>
+          <xm:sqref>I12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FE3BFC5D-DD1E-4E5C-99FD-C5B93745E00E}">
@@ -9346,7 +9025,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
+          <xm:sqref>I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7EDD0AA6-9198-408E-AC95-B27467D259D6}">
@@ -9361,7 +9040,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
+          <xm:sqref>I16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F90E373A-CFB8-4601-A0BD-35FE2489FCD0}">
@@ -9376,7 +9055,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H17</xm:sqref>
+          <xm:sqref>I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF67816D-6580-40EA-AE8D-F4905457C07F}">
@@ -9391,7 +9070,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
+          <xm:sqref>I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9333D35F-E0E5-49C1-A482-B295DBAEAF5A}">
@@ -9406,7 +9085,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H18</xm:sqref>
+          <xm:sqref>I18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4CB4999D-7F32-4BD0-A21E-79D58F5E0B47}">
@@ -9421,7 +9100,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H21</xm:sqref>
+          <xm:sqref>I33 I21 I39 I53 I57 I43:I44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E6F040FB-8FF3-46BF-AFB8-E322110300CC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I35:I36 I24 I32 I38 I41:I42 I52 I55:I56 I59:I60 I47:I50 I29:I30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A58A75E-4698-465A-8593-F06B91A3A900}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FE0A2372-87F7-425B-944F-6D9C2BCFEFD9}">
@@ -9436,7 +9145,52 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H24</xm:sqref>
+          <xm:sqref>I53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{686FCF22-AD95-49A7-A5F3-A09258557155}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C60C0BB9-0086-44D9-95A7-243C468A714A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{281B9BEB-E466-41FC-8DCC-90F674CE9544}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
